--- a/!parsed_items_100/1299/1299_1999-2100.xlsx
+++ b/!parsed_items_100/1299/1299_1999-2100.xlsx
@@ -639,13 +639,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HUSTLER</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -655,22 +655,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Красные ажурные стринги с разрезом и</t>
+          <t>Белые чулки с узорами сзади на</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>id-12928-1299</t>
+          <t>id-18687-1299</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -684,17 +684,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12928/12928_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12928/12928_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12928/12928_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18687/18687_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18687/18687_2_650.jpg</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Трусики-тонг красного цвета с широким кружевным поясом и маленьким логотипом Hustler привлекают свое внимание необычным дизайном! Жемчужная нить с шестью бусинами для клиторальной стимуляции. Красные ажурные стринги с разрезом и жемчужной нитью ML.  Красные ажурные стринги с разрезом и жемчужной нитью ML. Модель: hustler-hvp02mlr. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: HUSTLER. </t>
+          <t xml:space="preserve">.Белые чулки с узорами сзади на силиконовой полоске Allure №2 Nero 20 Den 3.4 ML.  Белые чулки с узорами сзади на силиконовой полоске Allure №2 Nero 20 Den 3.4 ML. Модель: giulia-allure2-nero3/4-mlw. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Материал: 91% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Украина</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>91% полиамид, 9% эластан</t>
         </is>
       </c>
       <c r="S2" t="inlineStr"/>
@@ -767,13 +767,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HUSTLER</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -783,22 +783,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Красные ажурные стринги с разрезом и</t>
+          <t>Чулки черные с силиконом Giulia ALLURE</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>id-12929-1299</t>
+          <t>id-20695-1299</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -812,17 +812,17 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12929/12929_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12929/12929_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12929/12929_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20695/20695_1_650.jpg</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Трусики-тонг красного цвета с широким кружевным поясом и маленьким логотипом Hustler привлекают свое внимание необычным дизайном! Жемчужная нить с шестью бусинами для клиторальной стимуляции. Красные ажурные стринги с разрезом и жемчужной нитью SM.  Красные ажурные стринги с разрезом и жемчужной нитью SM. Модель: hustler-hvp02smr. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: HUSTLER. </t>
+          <t xml:space="preserve">Тонкие фантазийные чулки с оплетенным эластаном, плотностью 20 ден. У модели укрепленный мыс и кружевная силиконовая коронка, под которой размещен тканый узор сетка в горошек. Эластан, обкрученный полиамидом, обеспечивает хорошую растяжимость модели и придает ей мягкость. Чулки связаны на новейшем оборудовании, что гарантирует их перманентно высокое качество. Чулки черные с силиконом Giulia ALLURE 02 1.2 (20 den).  Чулки черные с силиконом Giulia ALLURE 02 1.2 (20 den). Модель: giulia-allure20-1/2. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 91% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Украина</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>91% полиамид, 9% эластан</t>
         </is>
       </c>
       <c r="S3" t="inlineStr"/>
@@ -895,13 +895,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HUSTLER</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -911,22 +911,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ажурные стринги с бусинами и</t>
+          <t>Чулки черные с силиконом Giulia ALLURE</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>id-12426-1299</t>
+          <t>id-20692-1299</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -940,17 +940,17 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12426/12426_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12426/12426_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12426/12426_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20692/20692_1_650.jpg</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Ажурные стринги с бусинами и мини-вибратором ML.  Ажурные стринги с бусинами и мини-вибратором ML. Модель: hustler-hvp03mlb. Белье. Женские стимуляторы &gt; Вибромассажеры. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный. Материал: 90% полиэстер, 10% спандекс, пластик. LR 44 x 3 шт (в комплекте)Бренд: HUSTLER. </t>
+          <t xml:space="preserve">Тонкие фантазийные чулки с оплетенным эластаном, плотностью 20 ден. У модели укрепленный мыс и кружевная силиконовая коронка, под которой размещен тканый узор сетка в горошек. Эластан, обкрученный полиамидом, обеспечивает хорошую растяжимость модели и придает ей мягкость. Чулки связаны на новейшем оборудовании, что гарантирует их перманентно высокое качество. Чулки черные с силиконом Giulia ALLURE 02 3.4 (20 den).  Чулки черные с силиконом Giulia ALLURE 02 3.4 (20 den). Модель: giulia-allure20-3/4. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 91% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Украина</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% спандекс, пластик</t>
+          <t>91% полиамид, 9% эластан</t>
         </is>
       </c>
       <c r="S4" t="inlineStr"/>
@@ -1003,7 +1003,7 @@
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>стринги, мини-вибратор</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -1023,13 +1023,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HUSTLER</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ажурные стринги с бусинами и</t>
+          <t>Чёрные чулки на силиконовой полоске со</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>id-12427-1299</t>
+          <t>id-16917-1299</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12427/12427_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12427/12427_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12427/12427_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16917/16917_1_650.jpg</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Ажурные стринги с бусинами и мини-вибратором SM.  Ажурные стринги с бусинами и мини-вибратором SM. Модель: hustler-hvp03smb. Белье. Женские стимуляторы &gt; Вибромассажеры. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный. Материал: 90% полиэстер, 10% спандекс, пластик. LR 44 x 3 шт (в комплекте)Бренд: HUSTLER. </t>
+          <t xml:space="preserve">.Чёрные чулки на силиконовой полоске со швом сзади Allure №3 Nero 20 Den 1.2 XS.S.  Чёрные чулки на силиконовой полоске со швом сзади Allure №3 Nero 20 Den 1.2 XS.S. Модель: giulia-allure3-nero1/2-xssb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 91% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Украина</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% спандекс, пластик</t>
+          <t>91% полиамид, 9% эластан</t>
         </is>
       </c>
       <c r="S5" t="inlineStr"/>
@@ -1131,7 +1131,7 @@
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>стринги, мини-вибратор</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
@@ -1151,13 +1151,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HUSTLER</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1167,22 +1167,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Кружевные танго с мини-вибратором ML</t>
+          <t>Чёрные чулки на силиконовой полоске со</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>id-12429-1299</t>
+          <t>id-16918-1299</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1196,17 +1196,17 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12429/12429_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12429/12429_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12429/12429_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16918/16918_1_650.jpg</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Кружевные танго с мини-вибратором ML.  Кружевные танго с мини-вибратором ML. Модель: hustler-hvp04mlb. Белье. Женские стимуляторы &gt; Вибромассажеры. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 90% полиэстер, 10% спандекс, пластик. LR 44 x 3 шт (в комплекте)Бренд: HUSTLER. </t>
+          <t xml:space="preserve">.Чёрные чулки на силиконовой полоске со швом сзади Allure №3 Nero 20 Den 3.4 ML.  Чёрные чулки на силиконовой полоске со швом сзади Allure №3 Nero 20 Den 3.4 ML. Модель: giulia-allure3-nero3/4-mlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 91% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Украина</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% спандекс, пластик</t>
+          <t>91% полиамид, 9% эластан</t>
         </is>
       </c>
       <c r="S6" t="inlineStr"/>
@@ -1259,7 +1259,7 @@
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>танго, мини-вибратор</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
@@ -1279,13 +1279,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HUSTLER</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1295,12 +1295,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Кружевные танго с мини-вибратором SM</t>
+          <t>Белые чулки с узорами на боках на</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>id-12433-1299</t>
+          <t>id-16912-1299</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12433/12433_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12433/12433_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12433/12433_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16912/16912_1_650.jpg</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Кружевные танго с мини-вибратором SM.  Кружевные танго с мини-вибратором SM. Модель: hustler-hvp04smb. Белье. Женские стимуляторы &gt; Вибромассажеры. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 90% полиэстер, 10% спандекс, пластик. Батареек нет в комплекте. LR 44 x 3 шт (в комплект не входят)Бренд: HUSTLER. </t>
+          <t xml:space="preserve">.Белые чулки с узорами на боках на силиконовой полоске Allure №5 Bianco 20 Den 1.2 XS.S.  Белые чулки с узорами на боках на силиконовой полоске Allure №5 Bianco 20 Den 1.2 XS.S. Модель: giulia-allure5-bianco1/2-xssw. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Материал: 91% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Украина</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% спандекс, пластик</t>
+          <t>91% полиамид, 9% эластан</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
@@ -1387,7 +1387,7 @@
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>стринги, мини-вибратор</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
@@ -1407,13 +1407,13 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HUSTLER</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1423,22 +1423,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Кружевные стимулирующие стринги ML</t>
+          <t>Белые чулки с узорами на боках на</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>id-12431-1299</t>
+          <t>id-16911-1299</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -1452,17 +1452,17 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12431/12431_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12431/12431_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12431/12431_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16911/16911_1_650.jpg</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Заманчивые женские трусики-тонг черного цвета на широкой эластичной кружевной резинке с металлической подвеской в виде буквы H. Трусики-тонг с открытой передней частью и стимулирующими 12-ю бусинками на резинке. Кружевные стимулирующие стринги ML.  Кружевные стимулирующие стринги ML. Модель: hustler-hvp05mlb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 90% полиэстер, 10% спандекс, пластик. Батареек нет в комплекте. Бренд: HUSTLER. </t>
+          <t xml:space="preserve">.Белые чулки с узорами на боках на силиконовой полоске Allure №5 Bianco 20 Den 3.4 ML.  Белые чулки с узорами на боках на силиконовой полоске Allure №5 Bianco 20 Den 3.4 ML. Модель: giulia-allure5-bianco3/4-mlw. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Материал: 91% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Украина</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% спандекс, пластик</t>
+          <t>91% полиамид, 9% эластан</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -1535,13 +1535,13 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HUSTLER</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Кружевные стимулирующие стринги SM</t>
+          <t>Чёрные чулки с узорами на боках на</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>id-12430-1299</t>
+          <t>id-16913-1299</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1580,17 +1580,17 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12430/12430_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12430/12430_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12430/12430_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16913/16913_1_650.jpg</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Заманчивые женские трусики-тонг черного цвета на широкой эластичной кружевной резинке с металлической подвеской в виде буквы H. Трусики-тонг с открытой передней частью и стимулирующими 12-ю бусинками на резинке. Кружевные стимулирующие стринги SM.  Кружевные стимулирующие стринги SM. Модель: hustler-hvp05smb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 90% полиэстер, 10% спандекс, пластик. Батареек нет в комплекте. Бренд: HUSTLER. </t>
+          <t xml:space="preserve">.Чёрные чулки с узорами на боках на силиконовой полоске Allure №5 Nero 20 Den 1.2 XS.S.  Чёрные чулки с узорами на боках на силиконовой полоске Allure №5 Nero 20 Den 1.2 XS.S. Модель: giulia-allure5-nero1/2-xssb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: белый. Материал: 91% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Украина</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% спандекс, пластик</t>
+          <t>91% полиамид, 9% эластан</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -1663,32 +1663,40 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>IMAGINATION</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Настольная эротическая игра 50 оттенков</t>
+          <t>Чёрные чулки с узорами на боках на</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>id-12528-1299</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>id-16914-1299</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>99999</v>
@@ -1700,17 +1708,17 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12528/12528_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16914/16914_1_650.jpg</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Настольная эротическая игра 50 оттенков серого.  Настольная эротическая игра 50 оттенков серого. Модель: imagin-46238. Приколы. Эротические сувениры &gt; Сувениры. Аксессуары для игр &gt; Эротические игры. Батареек нет в комплекте. Бренд: IMAGINATION. </t>
+          <t xml:space="preserve">.Чёрные чулки с узорами на боках на силиконовой полоске Allure №5 Nero 20 Den 3.4 ML.  Чёрные чулки с узорами на боках на силиконовой полоске Allure №5 Nero 20 Den 3.4 ML. Модель: giulia-allure5-nero3/4-mlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 91% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Украина</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1723,7 +1731,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>91% полиамид, 9% эластан</t>
+        </is>
+      </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
@@ -1759,7 +1771,7 @@
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr">
         <is>
-          <t xml:space="preserve">300 карточек с романтическими вопросами, 150 жетонов богини, 1 вкладыш сабмиссив Кристиана Грея, 34 вкладыша мои ответы, 1 договор неразглашении, правила </t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
@@ -1779,67 +1791,79 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Уходовые средства эротив</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>стандартный</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Масло для ванны и массажа INTT SEXY</t>
+          <t>Черные тонкие чулки под пояс с надписью</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>id-22198-1299</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>id-24919-1299</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
         <v>99999</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2 капсулы</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22198/22198_22198_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24919/24919_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24919/24919_2_650.jpg</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Для себя, для него, для вас обоих - в одной капсуле масла Intt Sexy Case с ароматом Dolce &amp; Gabbana собрано все необходимое для страстных сеансов массажа и расслабляющих аромаванн. Подходит для любого вида массажа - от классического до эротического. Нежная текстура масла позволяет рукам плавно скользить по телу, а ненавязчивый аромат успокаивает и настраивает на получение удовольствия. Для растворения капсулы просто разогрейте ее в своих ладонях и добавьте немного воды. Идеально для принятия ванны. Благодаря натуральной желатиновой оболочке капсула легко растворяется в теплой воде, обогащая ее полезными свойствами масла подсолнуха и обволакивая приятным ароматом знаменитого парфюма. Достаточно бросить в ванну всего одну капсулу, чтобы кожа стала мягкой и бархатистой.Подарите себе энергию Intt Sexy Case.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Масло для ванны и массажа INTT SEXY CASE с ароматом Dolce &amp; Gabanna (2 капсулы).  Масло для ванны и массажа INTT SEXY CASE с ароматом Dolce . Модель: intt-blb01. Бразилия.  Gabanna (2 капсулы). Цвет: для женщин и мужчин. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Тонкие фантазийные чулки под пояс с эластаном двойной обкрутки, плотностью 20 ден. У модели широкая эластичная резинка, на которой размещен тканый узор в виде надписи Love и сердечка. Эластан, обкрученный двумя синтетическими нитями, обеспечивает хорошую растяжимость модели и придает ей мягкость, при этом обеспечивая непревзойденную долговечность. Черные тонкие чулки под пояс с надписью Love Giulia AMOUR 20 den 3.4 (M.L).  Черные тонкие чулки под пояс с надписью Love Giulia AMOUR 20 den 3.4 (M.L). Модель: giulia-amour01-mlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный с красным. Материал: 92% полиамид, 6% эластан, 2% полипропилен. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Косметика, препараты</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Косметика, препараты</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>92% полиамид, 6% эластан, 2% полипропилен</t>
+        </is>
+      </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
@@ -1875,7 +1899,7 @@
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>3 г</t>
+          <t>чулки</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
@@ -1895,32 +1919,40 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Уходовые средства эротив</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Масло для ванны и массажа INTT SEXY</t>
+          <t>Черные тонкие чулки под пояс с надписью</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>id-22199-1299</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>id-24918-1299</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
         <v>99999</v>
@@ -1932,44 +1964,44 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22199/22199_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22199/22199_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22199/22199_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24918/24918_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24918/24918_2_650.jpg</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Для себя, для него, для вас обоих - в одной капсуле масла Intt Sexy Case с ароматом Gabriela Sabatini собрано все необходимое для страстных сеансов массажа и расслабляющих аромаванн. Подходит для любого вида массажа - от классического до эротического. Нежная текстура масла позволяет рукам плавно скользить по телу, а ненавязчивый аромат успокаивает и настраивает на получение удовольствия. Для растворения капсулы просто разогрейте ее в своих ладонях и добавьте немного воды. Идеально для принятия ванны. Благодаря натуральной желатиновой оболочке капсула легко растворяется в теплой воде, обогащая ее полезными свойствами масла подсолнуха и обволакивая приятным ароматом знаменитого парфюма. Достаточно бросить в ванну всего одну капсулу, чтобы кожа стала мягкой и бархатистой.Подарите себе энергию Intt Sexy Case.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Масло для ванны и массажа INTT SEXY CASE с ароматом Gabriela Sabatini (2 капсулы).  Масло для ванны и массажа INTT SEXY CASE с ароматом Gabriela Sabatini (2 капсулы). Модель: intt-blb02. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Смазки, косметика &gt; Расслабляющая ванна. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Тонкие фантазийные чулки под пояс с эластаном двойной обкрутки, плотностью 20 ден. У модели широкая эластичная резинка, на которой размещен тканый узор в виде надписи Love и сердечка. Эластан, обкрученный двумя синтетическими нитями, обеспечивает хорошую растяжимость модели и придает ей мягкость, при этом обеспечивая непревзойденную долговечность. Черные тонкие чулки под пояс с надписью Love Giulia AMOUR 20 den 1.2 (XS.S).  Черные тонкие чулки под пояс с надписью Love Giulia AMOUR 20 den 1.2 (XS.S). Модель: giulia-amour01-xssb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный с красным. Материал: 92% полиамид, 6% эластан, 2% полипропилен. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>92% полиамид, 6% эластан, 2% полипропилен</t>
+        </is>
+      </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
-          <t>3 г</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>3 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -1995,7 +2027,7 @@
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>2 капсулы</t>
+          <t>чулки</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
@@ -2015,32 +2047,40 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Уходовые средства эротив</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Масло для ванны и массажа INTT SEXY</t>
+          <t>Черные тонкие чулки под пояс с красными</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>id-22196-1299</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>id-24917-1299</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
         <v>99999</v>
@@ -2052,44 +2092,44 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22196/22196_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22196/22196_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22196/22196_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24917/24917_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24917/24917_2_650.jpg</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Для себя, для него, для вас обоих - в одной капсуле масла Intt Sexy Case с ароматом Flower by Kenzo собрано все необходимое для страстных сеансов массажа и расслабляющих аромаванн. Подходит для любого вида массажа - от классического до эротического. Нежная текстура масла позволяет рукам плавно скользить по телу, а ненавязчивый аромат успокаивает и настраивает на получение удовольствия. Для растворения капсулы просто разогрейте ее в своих ладонях и добавьте немного воды. Идеально для принятия ванны. Благодаря натуральной желатиновой оболочке капсула легко растворяется в теплой воде, обогащая ее полезными свойствами масла подсолнуха и обволакивая приятным ароматом знаменитого парфюма. Достаточно бросить в ванну всего одну капсулу, чтобы кожа стала мягкой и бархатистой.Подарите себе энергию Intt Sexy Case.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Масло для ванны и массажа INTT SEXY CASE с ароматом Flower by Kenzo (2 капсулы).  Масло для ванны и массажа INTT SEXY CASE с ароматом Flower by Kenzo (2 капсулы). Модель: intt-blb03. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Смазки, косметика &gt; Расслабляющая ванна. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Тонкие фантазийные чулки под пояс с эластаном двойной обкрутки, плотностью 20 ден. У модели широкая эластичная резинка, на которой размещен тканый узор полоски с сердечками. Эластан, обкрученный двумя синтетическими нитями, обеспечивает хорошую растяжимость модели и придает ей мягкость, при этом обеспечивая непревзойденную долговечность. Черные тонкие чулки под пояс с красными сердечками Giulia AMOUR 20 den 3.4 (M.L).  Черные тонкие чулки под пояс с красными сердечками Giulia AMOUR 20 den 3.4 (M.L). Модель: giulia-amour02-mlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный с красным. Материал: 92% полиамид, 6% эластан, 2% полипропилен. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>92% полиамид, 6% эластан, 2% полипропилен</t>
+        </is>
+      </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
         <is>
-          <t>3 г</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>3 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -2115,7 +2155,7 @@
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>2 капсулы</t>
+          <t>чулки</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
@@ -2135,32 +2175,40 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Уходовые средства эротив</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Масло для ванны и массажа INTT SEXY</t>
+          <t>Черные тонкие чулки под пояс с красными</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>id-22197-1299</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>id-24916-1299</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
         <v>99999</v>
@@ -2172,44 +2220,44 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22197/22197_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22197/22197_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22197/22197_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24916/24916_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24916/24916_2_650.jpg</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Для себя, для него, для вас обоих - в одной капсуле масла Intt Sexy Case с ароматом Ck Be собрано все необходимое для страстных сеансов массажа и расслабляющих аромаванн. Подходит для любого вида массажа - от классического до эротического. Нежная текстура масла позволяет рукам плавно скользить по телу, а ненавязчивый аромат успокаивает и настраивает на получение удовольствия. Для растворения капсулы просто разогрейте ее в своих ладонях и добавьте немного воды. Идеально для принятия ванны. Благодаря натуральной желатиновой оболочке капсула легко растворяется в теплой воде, обогащая ее полезными свойствами масла подсолнуха и обволакивая приятным ароматом знаменитого парфюма. Достаточно бросить в ванну всего одну капсулу, чтобы кожа стала мягкой и бархатистой.Подарите себе энергию Intt Sexy Case.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Масло для ванны и массажа INTT SEXY CASE с ароматом Ck Be (2 капсулы).  Масло для ванны и массажа INTT SEXY CASE с ароматом Ck Be (2 капсулы). Модель: intt-blb04. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Смазки, косметика &gt; Расслабляющая ванна. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Тонкие фантазийные чулки под пояс с эластаном двойной обкрутки, плотностью 20 ден. У модели широкая эластичная резинка, на которой размещен тканый узор полоски с сердечками. Эластан, обкрученный двумя синтетическими нитями, обеспечивает хорошую растяжимость модели и придает ей мягкость, при этом обеспечивая непревзойденную долговечность. Черные тонкие чулки под пояс с красными сердечками Giulia AMOUR 20 den 1.2 (XS.S).  Черные тонкие чулки под пояс с красными сердечками Giulia AMOUR 20 den 1.2 (XS.S). Модель: giulia-amour02-xssb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный с красным. Материал: 92% полиамид, 6% эластан, 2% полипропилен. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>92% полиамид, 6% эластан, 2% полипропилен</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
-          <t>3 г</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>3 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
@@ -2235,7 +2283,7 @@
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>2 капсулы</t>
+          <t>чулки</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
@@ -2255,32 +2303,40 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Уходовые средства эротив</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Масло для ванны и массажа с ароматом</t>
+          <t>Игривые колготки с кошечками и</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>id-22183-1299</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>id-23925-1299</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
         <v>99999</v>
@@ -2292,44 +2348,44 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22183/22183_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22183/22183_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22183/22183_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23925/23925_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23925/23925_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23925/23925_3_650.jpg</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Масло для массажа и аромаванн Intt Sexy Fluf с шикарным ароматом шоколада - идеальное средство для расслабления и ухода за телом. Аромаванна с маслом Intt Sexy Fluf будоражит ярким ароматом шоколада и помогает отвлечься от будничных мыслей. Питательные компоненты ухаживают за кожей, делают ее мягкой, нежной и увлажненной. Просто поместите одну капсулу в ванну, и наслаждайтесь ее потрясающим эффектом. Расслабляющий массаж с маслом Intt Sexy Fluf возбуждающе действует на партнера. Разогрейте капсулу в ладонях, добавьте немного воды и используйте получившееся масло для массажа. Гладкая текстура придаст прикосновениям легкость, а безопасный состав позволит подключить к ласкам горячие поцелуи.Включите страсть на полную с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Масло для ванны и массажа с ароматом шоколада INTT SEXY FLUF (2 капсулы).  Масло для ванны и массажа с ароматом шоколада INTT SEXY FLUF (2 капсулы). Модель: intt-blb05. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Смазки, косметика &gt; Расслабляющая ванна. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Матовые фантазийные колготки с оплетенным эластаном, плотностью 60 ден, с ластовицей, широким поясом и усиленным плоским швом. У модели тонкий верх с тканым узором кошечка, а снизу имитация непрозрачных гольфин. Эластан, обкрученный полиамидом, обеспечивает хорошую растяжимость модели и придает ей мягкость. Колготки с имитацией не выходят из моды ни в межсезонье, ни зимой, поэтому в них всегда можно чувствовать себя уверенно. Колготки связаны на новейшем оборудовании, что гарантирует их перманентно высокое качество. Игривые колготки с кошечками и имитацией ботфорт Enjoy Cat S (2) 60 Den.  Игривые колготки с кошечками и имитацией ботфорт Enjoy Cat S (2) 60 Den. Модель: giulia-cat-2. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>90% полиамид, 10% эластан</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
-          <t>3 г</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
-          <t>3 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>
@@ -2355,7 +2411,7 @@
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>2 капсулы</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
@@ -2375,32 +2431,40 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Уходовые средства эротив</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Масло для ванны и массажа с ароматом</t>
+          <t>Игривые колготки с кошечками и</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>id-22182-1299</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+          <t>id-23926-1299</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
         <v>99999</v>
@@ -2412,17 +2476,17 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22182/22182_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22182/22182_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22182/22182_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23926/23926_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23926/23926_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23926/23926_3_650.jpg</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Масло для массажа и аромаванн Intt Sexy Fluf с шикарным ароматом фруктов - идеальное средство для расслабления и ухода за телом. Аромаванна с маслом Intt Sexy Fluf будоражит ярким ароматом фруктов и помогает отвлечься от будничных мыслей. Питательные компоненты ухаживают за кожей, делают ее мягкой, нежной и увлажненной. Просто поместите одну капсулу в ванну, и наслаждайтесь ее потрясающим эффектом. Расслабляющий массаж с маслом Intt Sexy Fluf возбуждающе действует на партнера. Разогрейте капсулу в ладонях, добавьте немного воды и используйте получившееся масло для массажа. Гладкая текстура придаст прикосновениям легкость, а безопасный состав позволит подключить к ласкам горячие поцелуи.Включите страсть на полную с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Масло для ванны и массажа с ароматом фруктов INTT SEXY FLUF (2 капсулы).  Масло для ванны и массажа с ароматом фруктов INTT SEXY FLUF (2 капсулы). Модель: intt-blb06. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Смазки, косметика &gt; Расслабляющая ванна. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Матовые фантазийные колготки с оплетенным эластаном, плотностью 60 ден, с ластовицей, широким поясом и усиленным плоским швом. У модели тонкий верх с тканым узором кошечка, а снизу имитация непрозрачных гольфин. Эластан, обкрученный полиамидом, обеспечивает хорошую растяжимость модели и придает ей мягкость. Колготки с имитацией не выходят из моды ни в межсезонье, ни зимой, поэтому в них всегда можно чувствовать себя уверенно. Колготки связаны на новейшем оборудовании, что гарантирует их перманентно высокое качество. Игривые колготки с кошечками и имитацией ботфорт Enjoy Cat M (3) 60 Den.  Игривые колготки с кошечками и имитацией ботфорт Enjoy Cat M (3) 60 Den. Модель: giulia-cat-3. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2435,21 +2499,21 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>90% полиамид, 10% эластан</t>
+        </is>
+      </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr">
         <is>
-          <t>3 г</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
-          <t>3 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
@@ -2475,7 +2539,7 @@
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>2 капсулы</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
@@ -2495,13 +2559,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Уходовые средства эротив</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2511,16 +2575,24 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Масло для ванны и массажа с ароматом</t>
+          <t>Игривые колготки с кошечками и</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>id-22185-1299</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>id-23927-1299</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
         <v>99999</v>
@@ -2532,44 +2604,44 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22185/22185_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22185/22185_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22185/22185_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23927/23927_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23927/23927_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23927/23927_3_650.jpg</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Масло для массажа и аромаванн Intt Sexy Fluf с шикарным ароматом винограда - идеальное средство для расслабления и ухода за телом. Аромаванна с маслом Intt Sexy Fluf будоражит ярким ароматом винограда и помогает отвлечься от будничных мыслей. Питательные компоненты ухаживают за кожей, делают ее мягкой, нежной и увлажненной. Просто поместите одну капсулу в ванну, и наслаждайтесь ее потрясающим эффектом. Расслабляющий массаж с маслом Intt Sexy Fluf возбуждающе действует на партнера. Разогрейте капсулу в ладонях, добавьте немного воды и используйте получившееся масло для массажа. Гладкая текстура придаст прикосновениям легкость, а безопасный состав позволит подключить к ласкам горячие поцелуи.Включите страсть на полную с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Масло для ванны и массажа с ароматом винограда INTT SEXY FLUF (2 капсулы).  Масло для ванны и массажа с ароматом винограда INTT SEXY FLUF (2 капсулы). Модель: intt-blb08. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Смазки, косметика &gt; Расслабляющая ванна. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Матовые фантазийные колготки с оплетенным эластаном, плотностью 60 ден, с ластовицей, широким поясом и усиленным плоским швом. У модели тонкий верх с тканым узором кошечка, а снизу имитация непрозрачных гольфин. Эластан, обкрученный полиамидом, обеспечивает хорошую растяжимость модели и придает ей мягкость. Колготки с имитацией не выходят из моды ни в межсезонье, ни зимой, поэтому в них всегда можно чувствовать себя уверенно. Колготки связаны на новейшем оборудовании, что гарантирует их перманентно высокое качество. Игривые колготки с кошечками и имитацией ботфорт Enjoy Cat L (4) 60 Den.  Игривые колготки с кошечками и имитацией ботфорт Enjoy Cat L (4) 60 Den. Модель: giulia-cat-4. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>90% полиамид, 10% эластан</t>
+        </is>
+      </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr">
         <is>
-          <t>3 г</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
-          <t>3 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -2595,7 +2667,7 @@
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>2 капсулы</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
@@ -2615,32 +2687,40 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Уходовые средства эротив</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Масло для ванны и массажа с ароматом</t>
+          <t>Колготки с имитацей чулок и узором в</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>id-22184-1299</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+          <t>id-24923-1299</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
         <v>99999</v>
@@ -2652,44 +2732,44 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22184/22184_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22184/22184_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22184/22184_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24923/24923_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24923/24923_2_650.jpg</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Масло для массажа и аромаванн Intt Sexy Fluf с шикарным ароматом клубники - идеальное средство для расслабления и ухода за телом. Аромаванна с маслом Intt Sexy Fluf будоражит ярким ароматом клубники и помогает отвлечься от будничных мыслей. Питательные компоненты ухаживают за кожей, делают ее мягкой, нежной и увлажненной. Просто поместите одну капсулу в ванну, и наслаждайтесь ее потрясающим эффектом. Расслабляющий массаж с маслом Intt Sexy Fluf возбуждающе действует на партнера. Разогрейте капсулу в ладонях, добавьте немного воды и используйте получившееся масло для массажа. Гладкая текстура придаст прикосновениям легкость, а безопасный состав позволит подключить к ласкам горячие поцелуи.Включите страсть на полную с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Масло для ванны и массажа с ароматом клубники INTT SEXY FLUF (2 капсулы).  Масло для ванны и массажа с ароматом клубники INTT SEXY FLUF (2 капсулы). Модель: intt-blb09. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Смазки, косметика &gt; Расслабляющая ванна. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Матовые колготки с оплетенным эластаном и плотностью 60 ден, с ластовицей, широким поясом и усиленным плоским швом. У модели тонкий верх с тканым узором горошек, а снизу имитация непрозрачных гольфин. Эластан, обкрученный полиамидом, обеспечивает хорошую растяжимость модели и придает ей мягкость. Колготки с имитацией не выходят из моды ни в межсезонье, ни зимой, поэтому в них всегда можно чувствовать себя уверенно. Колготки с имитацей чулок и узором в горошек Giulia CRAZY DAISI 60 den (M).  Колготки с имитацей чулок и узором в горошек Giulia CRAZY DAISI 60 den (M). Модель: giulia-crazy-mb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 93% полиамид, 7% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>93% полиамид, 7% эластан</t>
+        </is>
+      </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
-          <t>3 г</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr">
         <is>
-          <t>3 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -2715,7 +2795,7 @@
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2 капсулы</t>
+          <t>колготки</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
@@ -2735,32 +2815,40 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Разогревающее съедобное масло для</t>
+          <t>Колготки с имитацей чулок и узором в</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>id-22158-1299</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+          <t>id-24922-1299</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
         <v>99999</v>
@@ -2772,44 +2860,44 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22158/22158_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22158/22158_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22158/22158_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24922/24922_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24922/24922_2_650.jpg</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Искра. Буря. Экстаз. Может ли массаж подарить такое? Может, если это массажное масло для поцелуев Intt Fruit Sexy с ароматом сладкого брауни. Позволяет экспериментировать. Поскольку масло обладает разогревающим эффектом и предназначено для поцелуев, можно не ограничивать себя в сценариях интимных игр. Нанесите Intt Fruit Sexy на тело, поцелуйте несколько чувствительных точек и подуйте на них в течение 3 секунд - возбуждение не заставит себя долго ждать. Провоцирует желание. Аппетитный аромат сладкого брауни создает игривое настроение и помогает расслабиться. Абсолютно безопасная и протестированная формула без сахара и глютена подходит даже аллергикам и диабетикам. Не оставляет ощущения липкости и легко смывается водой.INTT - удовольствие в каждой капле.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Разогревающее съедобное масло для массажа с ароматом сладкого брауни FRUIT SEXY (40 мл).  Разогревающее съедобное масло для массажа с ароматом сладкого брауни FRUIT SEXY (40 мл). Модель: intt-fs14. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Матовые колготки с оплетенным эластаном и плотностью 60 ден, с ластовицей, широким поясом и усиленным плоским швом. У модели тонкий верх с тканым узором горошек, а снизу имитация непрозрачных гольфин. Эластан, обкрученный полиамидом, обеспечивает хорошую растяжимость модели и придает ей мягкость. Колготки с имитацией не выходят из моды ни в межсезонье, ни зимой, поэтому в них всегда можно чувствовать себя уверенно. Колготки с имитацей чулок и узором в горошек Giulia CRAZY DAISI 60 den (S).  Колготки с имитацей чулок и узором в горошек Giulia CRAZY DAISI 60 den (S). Модель: giulia-crazy-sb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 93% полиамид, 7% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>93% полиамид, 7% эластан</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
-          <t>40 мл</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr">
         <is>
-          <t>40 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -2835,7 +2923,7 @@
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>колготки</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
@@ -2855,32 +2943,40 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Жидкий массажный гель INTT VIBRATION</t>
+          <t>Чулки черные EMOTION с кружевом на</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>id-22172-1299</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+          <t>id-15331-1299</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
         <v>99999</v>
@@ -2892,44 +2988,44 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22172/22172_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22172/22172_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22172/22172_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/15331/15331_1_650.jpg</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Возбуждающий массажный гель с вибрирующим эффектом Intt Vibration Mint - это яркие эксперименты с сумасшедшими эмоциями. Эффект вибрации добавляет массажу необычные ощущения - приятная пульсация пробуждает каждую клеточку тела и задает ритм наслаждению. Слегка разогревающий эффект распаляет желание и заставляет эрогенные зоны переключиться в режим полной боевой готовности. Потрясающий вкус мяты делает поцелуи, прелюдию и оральный секс настоящим удовольствием. Супергладкая текстура мягко обволакивает тело, позволяя рукам легко и бесконечно нежно скользить по нему. Клинически протестированный состав Intt Vibration Mint безопасен для организма. Не вызывает аллергии. Не оставляет липких следов. Просто смывается водой.Позвольте себе волнующее приключение с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Жидкий массажный гель INTT VIBRATION Mint с эффектом вибрации и ароматом мяты (17 мл).  Жидкий массажный гель INTT VIBRATION Mint с эффектом вибрации и ароматом мяты (17 мл). Модель: intt-fu21. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Препараты и возбудители &gt; Чувствительный клитор. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Классический дизайн, оптимальная плотность для повседневной носки. Благодаря силиконовой резинке чулки плотно облегают ножки, при этом в них комфортно находится в течении всего дня. Чулки черные EMOTION с кружевом на силиконовой ленте 1.2 (40 den).  Чулки черные EMOTION с кружевом на силиконовой ленте 1.2 (40 den). Модель: giulia-emotion1/2black. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 75% полиамид, 25% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Украина</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>75% полиамид, 25% эластан</t>
+        </is>
+      </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
-          <t>17 мл</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr">
         <is>
-          <t>17 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -2975,32 +3071,40 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Жидкий массажный гель INTT VIBRATION</t>
+          <t>Чулки белые EMOTION с кружевом на</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>id-22173-1299</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+          <t>id-15291-1299</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
         <v>99999</v>
@@ -3012,44 +3116,44 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22173/22173_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22173/22173_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22173/22173_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/15291/15291_1_650.jpg</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Возбуждающий массажный гель с вибрирующим эффектом Intt Vibration Strawberry - это яркие эксперименты с сумасшедшими эмоциями. Эффект вибрации добавляет массажу необычные ощущения - приятная пульсация пробуждает каждую клеточку тела и задает ритм наслаждению. Слегка разогревающий эффект распаляет желание и заставляет эрогенные зоны переключиться в режим полной боевой готовности. Потрясающий вкус клубники делает поцелуи, прелюдию и оральный секс настоящим удовольствием. Супергладкая текстура мягко обволакивает тело, позволяя рукам легко и бесконечно нежно скользить по нему. Клинически протестированный состав Intt Vibration Strawberry безопасен для организма. Не вызывает аллергии. Не оставляет липких следов. Просто смывается водой.Позвольте себе волнующее приключение с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Жидкий массажный гель INTT VIBRATION Strawberry с эффектом вибрации и ароматом клубники (17 мл).  Жидкий массажный гель INTT VIBRATION Strawberry с эффектом вибрации и ароматом клубники (17 мл). Модель: intt-fu22. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Препараты и возбудители &gt; Чувствительный клитор. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Классический дизайн, оптимальная плотность для повседневной носки. Благодаря силиконовой резинке чулки плотно облегают ножки, при этом в них комфортно находится в течении всего дня. Чулки белые EMOTION с кружевом на силиконовой ленте 1.2 (40 den).  Чулки белые EMOTION с кружевом на силиконовой ленте 1.2 (40 den). Модель: giulia-emotion1/2white. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Материал: 75% полиамид, 25% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Украина</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>75% полиамид, 25% эластан</t>
+        </is>
+      </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
-          <t>17 мл</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr">
         <is>
-          <t>17 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -3095,28 +3199,40 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>INTT</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>GIULIA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>для женщин</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Жидкий массажный гель INTT VIBRATION</t>
+          <t>Чулки EMOTION непрозрачные на</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>id-22175-1299</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+          <t>id-16126-1299</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
         <v>99999</v>
@@ -3128,44 +3244,44 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22175/22175_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22175/22175_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22175/22175_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16126/16126_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16126/16126_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16126/16126_3_650.jpg</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Возбуждающий массажный гель с вибрирующим эффектом Intt Vibration Chocolate - это яркие эксперименты с сумасшедшими эмоциями. Эффект вибрации добавляет массажу необычные ощущения - приятная пульсация пробуждает каждую клеточку тела и задает ритм наслаждению. Слегка разогревающий эффект распаляет желание и заставляет эрогенные зоны переключиться в режим полной боевой готовности. Потрясающий вкус шоколада делает поцелуи, прелюдию и оральный секс настоящим удовольствием. Супергладкая текстура мягко обволакивает тело, позволяя рукам легко и бесконечно нежно скользить по нему. Клинически протестированный состав Intt Vibration Chocolate безопасен для организма. Не вызывает аллергии. Не оставляет липких следов. Просто смывается водой.Позвольте себе волнующее приключение с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Жидкий массажный гель INTT VIBRATION Chocolate с эффектом вибрации и ароматом шоколада (17 мл).  Жидкий массажный гель INTT VIBRATION Chocolate с эффектом вибрации и ароматом шоколада (17 мл). Модель: intt-fu23. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Препараты и возбудители &gt; Чувствительный клитор. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">.Чулки EMOTION непрозрачные на силиконовой ажурной резинке 100 den 1.2 (XS.S).  Чулки EMOTION непрозрачные на силиконовой ажурной резинке 100 den 1.2 (XS.S). Модель: giulia-emotion100-1/2. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Украина</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>90% полиамид, 10% эластан</t>
+        </is>
+      </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
-          <t>17 мл</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr">
         <is>
-          <t>17 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -3211,32 +3327,40 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Жидкий массажный гель INTT VIBRATION</t>
+          <t>Чулки EMOTION непрозрачные на</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>id-22174-1299</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+          <t>id-16127-1299</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
         <v>99999</v>
@@ -3248,44 +3372,44 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22174/22174_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22174/22174_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22174/22174_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16127/16127_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16127/16127_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16127/16127_3_650.jpg</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Возбуждающий массажный гель с вибрирующим эффектом Intt Vibration Dulce de Leche - это яркие эксперименты с сумасшедшими эмоциями. Эффект вибрации добавляет массажу необычные ощущения - приятная пульсация пробуждает каждую клеточку тела и задает ритм наслаждению. Слегка разогревающий эффект распаляет желание и заставляет эрогенные зоны переключиться в режим полной боевой готовности. Потрясающий вкус сгущенного молока делает поцелуи, прелюдию и оральный секс настоящим удовольствием. Супергладкая текстура мягко обволакивает тело, позволяя рукам легко и бесконечно нежно скользить по нему. Клинически протестированный состав Intt Vibration Dulce de Leche безопасен для организма. Не вызывает аллергии. Не оставляет липких следов. Просто смывается водой.Позвольте себе волнующее приключение с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Жидкий массажный гель INTT VIBRATION Dulce de Leche с эффектом вибрации и ароматом сгущенного молока (17 мл).  Жидкий массажный гель INTT VIBRATION Dulce de Leche с эффектом вибрации и ароматом сгущенного молока (17 мл). Модель: intt-fu29. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Препараты и возбудители &gt; Чувствительный клитор. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">.Чулки EMOTION непрозрачные на силиконовой ажурной резинке 100 den 3.4 (M.L).  Чулки EMOTION непрозрачные на силиконовой ажурной резинке 100 den 3.4 (M.L). Модель: giulia-emotion100-3/4. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Украина</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>90% полиамид, 10% эластан</t>
+        </is>
+      </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
-          <t>17 мл</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr">
         <is>
-          <t>17 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -3331,32 +3455,40 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Жидкий массажный гель INTT VIBRATION</t>
+          <t>Чулки черные EMOTION с кружевом на</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>id-22192-1299</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+          <t>id-17327-1299</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
         <v>99999</v>
@@ -3368,44 +3500,44 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22192/22192_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22192/22192_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22192/22192_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17327/17327_1_650.jpg</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Охлаждающий массажный гель с вибрирующим эффектом Intt Vibration Extra strong Ice - это яркие эксперименты с сумасшедшими эмоциями. Эффект вибрации добавляет массажу необычные ощущения - приятная пульсация пробуждает каждую клеточку тела и задает ритм наслаждению. Охлаждающий эффект будоражит легким покалыванием и увеличивает восприимчивость кожи к ласкам. Потрясающий вкус мяты делает поцелуи, прелюдию и оральный секс настоящим удовольствием. Супергладкая текстура мягко обволакивает тело, позволяя рукам легко и бесконечно нежно скользить по нему. Клинически протестированный состав Intt Vibration Extra strong Ice безопасен для организма. Не вызывает аллергии. Не оставляет липких следов. Просто смывается водой.Позвольте себе волнующее приключение с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Жидкий массажный гель INTT VIBRATION Extra-strong Ice с охлаждающим эффектом и эффектом вибрации (17 мл).  Жидкий массажный гель INTT VIBRATION Extra-strong Ice с охлаждающим эффектом и эффектом вибрации (17 мл). Модель: intt-fu33. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Препараты и возбудители &gt; Чувствительный клитор. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Классический дизайн, оптимальная плотность для повседневной носки. Благодаря силиконовой резинке чулки плотно облегают ножки, при этом в них комфортно находится в течении всего дня. Чулки черные EMOTION с кружевом на силиконовой ленте 1.2 (20 den).  Чулки черные EMOTION с кружевом на силиконовой ленте 1.2 (20 den). Модель: giulia-emotion20-1/2black. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Украина</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>88% полиамид, 12% эластан</t>
+        </is>
+      </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
-          <t>17 мл</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>17 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -3451,13 +3583,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3467,16 +3599,24 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Блеск для губ INTT GLOSS VIBE Mint с</t>
+          <t>Чулки черные EMOTION с ТЕМНО-СИНИМ</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>id-22195-1299</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+          <t>id-17615-1299</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
         <v>99999</v>
@@ -3488,44 +3628,44 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22195/22195_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22195/22195_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22195/22195_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22195/22195_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17615/17615_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17615/17615_2_650.jpg</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Разжечь страсть и свести с ума одним поцелуем? Почему бы и нет, когда это так легко с блеском для губ Intt Gloss Vibe Mint. Создает вибрирующий эффект. При поцелуях вибрация передается партнеру, что делает этот момент запоминающимся и возбуждающим желание. Сочный вкус мяты и легкое покалывание увеличивают удовольствие от оральных ласк. Невесомая текстура и прозрачный цвет позволяют использовать блеск в повседневной жизни в качестве бальзама. Безопасный состав деликатно ухаживает за кожей губ, придавая ей безоговорочную мягкость и гладкость.Больше чувств вместе с INTT!Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Блеск для губ INTT GLOSS VIBE Mint с эффектом вибрации и ароматом мяты (6 г).  Блеск для губ INTT GLOSS VIBE Mint с эффектом вибрации и ароматом мяты (6 г). Модель: intt-g01. Косметика, препараты. Смазки, косметика &gt; Косметика. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Классический дизайн, оптимальная плотность для повседневной носки. Благодаря силиконовой резинке чулки плотно облегают ножки, при этом в них комфортно находится в течении всего дня. Чулки черные EMOTION с ТЕМНО-СИНИМ кружевом на силиконовой ленте 1.2 (20 den).  Чулки черные EMOTION с ТЕМНО-СИНИМ кружевом на силиконовой ленте 1.2 (20 den). Модель: giulia-emotion20-1/2nero-navy. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный с темно-синим. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Украина</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>88% полиамид, 12% эластан</t>
+        </is>
+      </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
-          <t>6 г</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>6 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -3571,13 +3711,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3587,16 +3727,24 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Блеск для губ INTT GLOSS VIBE</t>
+          <t>Чулки черные EMOTION с КРАСНЫМ кружевом</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>id-22193-1299</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+          <t>id-17611-1299</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
         <v>99999</v>
@@ -3608,44 +3756,44 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22193/22193_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22193/22193_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22193/22193_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22193/22193_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17611/17611_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17611/17611_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17611/17611_3_650.jpg</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Разжечь страсть и свести с ума одним поцелуем? Почему бы и нет, когда это так легко с блеском для губ Intt Gloss Vibe Strawberry. Создает вибрирующий эффект. При поцелуях вибрация передается партнеру, что делает этот момент запоминающимся и возбуждающим желание. Сочный вкус клубники и легкое покалывание увеличивают удовольствие от оральных ласк. Невесомая текстура и прозрачный цвет позволяют использовать блеск в повседневной жизни в качестве бальзама. Безопасный состав деликатно ухаживает за кожей губ, придавая ей безоговорочную мягкость и гладкость.Больше чувств вместе с INTT!Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Блеск для губ INTT GLOSS VIBE Strawberry с эффектом вибрации и ароматом клубники (6 г).  Блеск для губ INTT GLOSS VIBE Strawberry с эффектом вибрации и ароматом клубники (6 г). Модель: intt-g02. Косметика, препараты. Смазки, косметика &gt; Косметика. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Классический дизайн, оптимальная плотность для повседневной носки. Благодаря силиконовой резинке чулки плотно облегают ножки, при этом в них комфортно находится в течении всего дня. Чулки черные EMOTION с КРАСНЫМ кружевом на силиконовой ленте 1.2 (20 den).  Чулки черные EMOTION с КРАСНЫМ кружевом на силиконовой ленте 1.2 (20 den). Модель: giulia-emotion20-1/2nero-red. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный с красным. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Украина</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>88% полиамид, 12% эластан</t>
+        </is>
+      </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr">
         <is>
-          <t>6 г</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>6 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -3691,13 +3839,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3707,16 +3855,24 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Блеск для губ INTT GLOSS VIBE</t>
+          <t>Чулки красные EMOTION с кружевом на</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>id-22194-1299</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+          <t>id-17606-1299</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
         <v>99999</v>
@@ -3728,44 +3884,44 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22194/22194_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22194/22194_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22194/22194_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22194/22194_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17606/17606_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17606/17606_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17606/17606_3_650.jpg</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Разжечь страсть и свести с ума одним поцелуем? Почему бы и нет, когда это так легко с блеском для губ Intt Gloss Vibe Tutti-frutti. Создает вибрирующий эффект. При поцелуях вибрация передается партнеру, что делает этот момент запоминающимся и возбуждающим желание. Сочный вкус фруктов и легкое покалывание увеличивают удовольствие от оральных ласк. Невесомая текстура и прозрачный цвет позволяют использовать блеск в повседневной жизни в качестве бальзама. Безопасный состав деликатно ухаживает за кожей губ, придавая ей безоговорочную мягкость и гладкость.Больше чувств вместе с INTT!Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Блеск для губ INTT GLOSS VIBE Tutti-frutti с эффектом вибрации и фруктовым ароматом (6 г).  Блеск для губ INTT GLOSS VIBE Tutti-frutti с эффектом вибрации и фруктовым ароматом (6 г). Модель: intt-g03. Косметика, препараты. Смазки, косметика &gt; Косметика. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Классический дизайн, оптимальная плотность для повседневной носки. Благодаря силиконовой резинке чулки плотно облегают ножки, при этом в них комфортно находится в течении всего дня. Чулки красные EMOTION с кружевом на силиконовой ленте 1.2 (20 den).  Чулки красные EMOTION с кружевом на силиконовой ленте 1.2 (20 den). Модель: giulia-emotion20-1/2red. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: красный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Украина</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>88% полиамид, 12% эластан</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
-          <t>6 г</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>6 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -3811,32 +3967,40 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Жидкий вибратор с согревающим эффектом</t>
+          <t>БЕЛЫЕ чулки EMOTION с кружевом на</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>id-25826-1299</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+          <t>id-18691-1299</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
         <v>99999</v>
@@ -3848,17 +4012,17 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25826/25826_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25826/25826_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25826/25826_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18691/18691_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18691/18691_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18691/18691_3_650.jpg</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вибрирующие волны Jambu откроют новый уровень стимуляции, повысят не только ощущения, но и помогут изучить и открыть самые тайные грани удовольствия. Всего одна капля жидкого вибратора Vibration! позволит ощутить яркий букет из тепла, вибрации и пульсации. Количество нанесения зависит от индивидуального уровня чувствительности каждого человека. Жидкий вибратор приносит волны согревающих, пульсирующих и вибрирующих ощущений в течение более 30 минут. Продукт унисекс и может использоваться для проникновения, мастурбации, поцелуев, а также орального секса из-за его невероятного вкуса.Способ применения: нанесите 1,2 или 3 дозы (нажатия на помпу дозатор) на клитор или 1 дозу на половой член. Жидкий вибратор с согревающим эффектом Vibration! Ganjah (15 мл).  Жидкий вибратор с согревающим эффектом Vibration! Ganjah (15 мл). Модель: intt-ga0001. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Оральные смазки. Препараты и возбудители &gt; Чувствительный клитор. Препараты и возбудители &gt; Усиление оргазма. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Классический дизайн, оптимальная плотность для повседневной носки. Благодаря силиконовой резинке чулки плотно облегают ножки, при этом в них комфортно находится в течении всего дня. БЕЛЫЕ чулки EMOTION с кружевом на силиконовой ленте 1.2 (20 den).  БЕЛЫЕ чулки EMOTION с кружевом на силиконовой ленте 1.2 (20 den). Модель: giulia-emotion20-1/2xssw. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Украина</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3871,21 +4035,21 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>88% полиамид, 12% эластан</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
-          <t>15 мл</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>15 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -3931,32 +4095,40 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Шипучая массажная пена с охлаждающим</t>
+          <t>Чулки черные EMOTION с кружевом на</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>id-22187-1299</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+          <t>id-17326-1299</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
         <v>99999</v>
@@ -3968,44 +4140,44 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22187/22187_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22187/22187_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22187/22187_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17326/17326_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17326/17326_2_650.jpg</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Шипучая пена Intt Anghel Explosion Pheros - универсальное косметическое средство 3 в 1, владеть которым доставляет дикое удовольствие. Великолепно подходит для эффектного массажа. Просто встряхните баллончик и нанесите пену на тело партнера. Дальше все сделает шипучка с охлаждающим эффектом. Тысячи неуемных пузырьков начнут волновать кожу, плавно взрываясь и щекоча ее. А легкое ощущение холодка пробудит желание отдаться эксперименту полностью. Отлично расслабляет. Заряжает кожу энергией и снимает напряжение после долгого тяжелого дня. Превосходно освежает после душа. Безопасный состав с натуральными ингредиентами из выжимки бразильских растений изумительно увлажняет кожу, делая ее свежее, мягче и нежнее.Любите себя каждый день вместе с Intt Anghel Explosion Pheros.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Шипучая массажная пена с охлаждающим эффектом ANGHEL EXPLOSION PHEROS (50 мл).  Шипучая массажная пена с охлаждающим эффектом ANGHEL EXPLOSION PHEROS (50 мл). Модель: intt-lh01. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Классический дизайн, оптимальная плотность для повседневной носки. Благодаря силиконовой резинке чулки плотно облегают ножки, при этом в них комфортно находится в течении всего дня. Чулки черные EMOTION с кружевом на силиконовой ленте 3.4 (20 den).  Чулки черные EMOTION с кружевом на силиконовой ленте 3.4 (20 den). Модель: giulia-emotion20-3/4black. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Украина</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>88% полиамид, 12% эластан</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
-          <t>50 мл</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -4051,32 +4223,40 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Шипучая массажная пена с охлаждающим</t>
+          <t>БЕЛЫЕ ЧУЛКИ EMOTION с кружевом на</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>id-22186-1299</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+          <t>id-18692-1299</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
         <v>99999</v>
@@ -4088,44 +4268,44 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22186/22186_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22186/22186_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22186/22186_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18692/18692_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18692/18692_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18692/18692_3_650.jpg</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Шипучая пена Intt Anghel Explosion Pheros с ароматом персика - универсальное косметическое средство 3 в 1, владеть которым доставляет дикое удовольствие. Великолепно подходит для эффектного массажа. Просто встряхните баллончик и нанесите пену на тело партнера. Дальше все сделает персиковая шипучка с охлаждающим эффектом. Тысячи неуемных пузырьков начнут волновать кожу, плавно взрываясь и щекоча ее. А легкое ощущение холодка и приятный аромат персика пробудят желание отдаться эксперименту полностью. Отлично расслабляет. Заряжает кожу энергией и снимает напряжение после долгого тяжелого дня. Превосходно освежает после душа. Безопасный состав с натуральными ингредиентами из выжимки бразильских растений изумительно увлажняет кожу, делая ее свежее, мягче и нежнее.Любите себя каждый день вместе с Intt Anghel Explosion Pheros.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Шипучая массажная пена с охлаждающим эффектом EXPLOSION PHEROS Peach и ароматом персика (50 мл).  Шипучая массажная пена с охлаждающим эффектом EXPLOSION PHEROS Peach и ароматом персика (50 мл). Модель: intt-lh02. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Классический дизайн, оптимальная плотность для повседневной носки. Благодаря силиконовой резинке чулки плотно облегают ножки, при этом в них комфортно находится в течении всего дня. БЕЛЫЕ ЧУЛКИ EMOTION с кружевом на силиконовой ленте 3.4 (20 den).  БЕЛЫЕ ЧУЛКИ EMOTION с кружевом на силиконовой ленте 3.4 (20 den). Модель: giulia-emotion20-3/4mlw. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Украина</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>88% полиамид, 12% эластан</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
-          <t>50 мл</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -4171,32 +4351,40 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Массажное масло с возбуждающим эффектом</t>
+          <t>Чулки черные EMOTION с ТЕМНО-СИНИМ</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>id-25618-1299</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+          <t>id-17616-1299</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
         <v>99999</v>
@@ -4208,17 +4396,17 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25618/25618_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25618/25618_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25618/25618_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17616/17616_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17616/17616_2_650.jpg</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажное масло Intt Sauvage by Fatima Moura с возбуждающим эффектом - ритуал красоты и сексуальности в каждой капле.    Бесподобно для любого массажа. Возбуждающие дикое желание афродизиаки, волнующая нежностью текстура масла и утонченный аромат превращают сеанс массажа в особенный ритуал. Вам будет хотеться только одного - отдаться чувствам без остатка.    Безупречно для ухода за кожей. Комплекс ценных масел и витаминов придает коже мягкость, увлажненность и потрясающе ухоженный вид.Включите энергию страсти на полную с Intt Sauvage by Fatima Moura. Массажное масло с возбуждающим эффектом NTT SAUVAGE by Fatima Moura (130 мл).  Массажное масло с возбуждающим эффектом NTT SAUVAGE by Fatima Moura (130 мл). Модель: intt-lh08. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Классический дизайн, оптимальная плотность для повседневной носки. Благодаря силиконовой резинке чулки плотно облегают ножки, при этом в них комфортно находится в течении всего дня. Чулки черные EMOTION с ТЕМНО-СИНИМ кружевом на силиконовой ленте 3.4 (20 den).  Чулки черные EMOTION с ТЕМНО-СИНИМ кружевом на силиконовой ленте 3.4 (20 den). Модель: giulia-emotion20-3/4nero-navy. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный с темно-синим. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Украина</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4231,21 +4419,21 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>88% полиамид, 12% эластан</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
-          <t>130 мл</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>130 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -4291,38 +4479,38 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Массажный гель INTT RU Silver с</t>
+          <t>Чулки черные EMOTION с КРАСНЫМ кружевом</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>id-22188-1299</t>
+          <t>id-17613-1299</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>40-42</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -4336,30 +4524,34 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22188/22188_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22188/22188_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22188/22188_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17613/17613_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17613/17613_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17613/17613_3_650.jpg</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажный гель Intt Ru Silver с фруктовым ароматом - беспроигрышный вариант для совершенных моментов близости. Подвластны особенные виды массажа. Плотная, нерастекающаяся текстура геля обволакивает тело и прекрасно расслабляет. Она превосходно справится даже со специальной техникой массажа телом по телу. Приятный аромат фруктов с цитрусовым оттенком отвлекает от повседневных мыслей и настраивает на близость. Уникальная формула позволяет экономично расходовать количество геля. Просто разведите часть геля теплой водой в отдельной емкости и наслаждайтесь еще большим скольжением. Абсолютно безопасный и клинически проверенный состав не вызывает аллергии или раздражения, не оставляет липких пятен и легко смывается водой.Intt Ru Silver создан для вашего удовольствия.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Массажный гель INTT RU Silver с цитрусовым ароматом (150 мл).  Массажный гель INTT RU Silver с цитрусовым ароматом (150 мл). Модель: intt-lh09. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Классический дизайн, оптимальная плотность для повседневной носки. Благодаря силиконовой резинке чулки плотно облегают ножки, при этом в них комфортно находится в течении всего дня. Чулки черные EMOTION с КРАСНЫМ кружевом на силиконовой ленте 3.4 (20 den).  Чулки черные EMOTION с КРАСНЫМ кружевом на силиконовой ленте 3.4 (20 den). Модель: giulia-emotion20-3/4nero-red. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный с красным. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: GIULIA. </t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Украина</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>88% полиамид, 12% эластан</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
@@ -4415,32 +4607,40 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>GIULIETTA</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Массажный гель INTT RU Gold с цветочным</t>
+          <t>Черные лайкровые чулки с кружевом и с</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>id-22189-1299</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+          <t>id-14143-1299</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
         <v>99999</v>
@@ -4452,44 +4652,44 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22189/22189_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22189/22189_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22189/22189_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14143/14143_1_650.jpg</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажный гель Intt Ru Gold с цветочным ароматом - беспроигрышный вариант для совершенных моментов близости. Подвластны особенные виды массажа. Плотная, нерастекающаяся текстура геля обволакивает тело и прекрасно расслабляет. Она превосходно справится даже со специальной техникой массажа телом по телу. Приятный цветочный аромат с ванильным оттенком отвлекает от повседневных мыслей и настраивает на близость. Уникальная формула позволяет экономично расходовать количество геля. Просто разведите часть геля теплой водой в отдельной емкости и наслаждайтесь еще большим скольжением. Абсолютно безопасный и клинически проверенный состав не вызывает аллергии или раздражения, не оставляет липких пятен и легко смывается водой.Intt Ru Gold создан для вашего удовольствия.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Массажный гель INTT RU Gold с цветочным ароматом (150 мл).  Массажный гель INTT RU Gold с цветочным ароматом (150 мл). Модель: intt-lh10. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">.Черные лайкровые чулки с кружевом и с силиконовыми полосками Effect XS.S (20 den).  Черные лайкровые чулки с кружевом и с силиконовыми полосками Effect XS.S (20 den). Модель: guilietta-799386. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 75% полиамид, 25% эластан. Батареек нет в комплекте. Бренд: GIULIETTA. </t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Украина</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>75% полиамид, 25% эластан</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr">
         <is>
-          <t>150 мл</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>150 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -4535,28 +4735,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Увлажнящий интимный гель на водной</t>
+          <t>Вибратор для двойной стимуляции Gvibe</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>id-25821-1299</t>
+          <t>id-22831-1299</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -4572,57 +4772,71 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25821/25821_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22831/22831_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22831/22831_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22831/22831_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22831/22831_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22831/22831_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22831/22831_6_650.jpg</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Интимный гель, который должен быть в Вашей прикроватной тумбочке. Состав на водной основе с маслом семян каннабиса (конопли) не вредит презервативу и его можно использовать ежедневно, во время полового акта или с секс-игрушками.Способ применения: нанесите необходимое количество на любую часть тела, чтобы улучшить скольжение и уменьшить трение. Увлажнящий интимный гель на водной основе с коноплей Cannabis (100мл).  Увлажнящий интимный гель на водной основе с коноплей Cannabis (100мл). Модель: intt-lu0001. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Сладкая новинка от компании Gvibe! Исключительно женский вибратор Gcandy, который знает, как обращаться с самыми чувствительными зонами женского тела.Он умеет эффективно стимулировать точку G, ласкать клитор и воздействовать на вход во влагалище. И всё это одновременно!Витой ствол, 2 мотора внутри игрушки, полная водонепроницаемость  это настоящее сокровище для любой девушки.Начните вводить Gcandy, и вы почувствуете массажное воздействие рельефного ствола на каждый участок влагалища. Включите вибрацию и считайте секунды до наступления оргазма. Она невероятная!    - 2 мотора, расположенных в головке и нижней части ствола    - 6 режимов вибрацииШикарное сочетание для быстрого взлёта на вершину наслаждения!Gcandy  обладатель фирменной ручки в виде G.За счет такой формы, вибратор очень удобно держать и позиционировать так, как вам нравится. А еще игрушку можно повесить на крючок в ванной.Конечно же, с вибратором можно использовать смазки. Даже нужно  меньшее трение продлит срок службы невероятно нежного силикона. Только учтите, что смазки нужны только на водной основе.    - 100% водонепроницаемость    - USB-зарядка с магнитными капсулами    - 2 мощных и тихих мотора    - 6 новых режимов вибрации    - До 4-х часов работы.Вибратор для двойной стимуляции Gvibe Gcandy - Sweet Raspberry (2 мотора, 6 режимов).  Вибратор для двойной стимуляции Gvibe Gcandy - Sweet Raspberry (2 мотора, 6 режимов). Модель: gvibe-10448. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: фуксия. Материал: мягкий жидкий силикон с нежной бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr"/>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>мягкий жидкий силикон с нежной бархатистой поверхностью, пластик</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr">
         <is>
-          <t>100 мл</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
+      <c r="Y34" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>23.5</v>
+      </c>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
+      <c r="AD34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>4</v>
+      </c>
       <c r="AH34" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4635,7 +4849,7 @@
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>вибростимулятор, зарядное магнитное USB-устройство, мешочек для хранения, инструкция</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
@@ -4655,28 +4869,28 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Согревающий анальный гель на</t>
+          <t>Яйцо-мастурбатор Gvibe Gegg Red</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>id-25820-1299</t>
+          <t>id-25642-1299</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -4692,17 +4906,17 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25820/25820_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25642/25642_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25642/25642_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25642/25642_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25642/25642_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25642/25642_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25642/25642_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25642/25642_7_650.jpg</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гель на силиконовой основе Hot Anal разработан специально для анальной области, его натуральный состав не вредит презервативу и его можно использовать ежедневно во время полового акта. Кроме того, он дает ощущение мягкого тепла.Способ применения: нанесите необходимое количество на любую часть тела, чтобы улучшить скольжение и уменьшить трение. Согревающий анальный гель на силиконовой основе Hot Anal (100мл).  Согревающий анальный гель на силиконовой основе Hot Anal (100мл). Модель: intt-lu0002. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Gvibe Gegg  это миниатюрный мастурбатор, который создан дарить мужчинам удовольствие. Уникальные текстуры не были ранее представлены ни в одной подобной игрушке.Gegg мягкий и гладкий снаружи, но рельефный внутри. Объёмные 3D-грани будут создавать интенсивные ощущения, массируя каждый сантиметр головки и ствола. Повышенная эластичность материала делает процесс максимально комфортным.Мастурбатор идеален как для соло-игры, так и для парной прелюдии. Стимуляцию игрушкой можно сочетать с оральными ласками или петтингом. Уникальные текстуры мастурбатора повышают чувствительность, приводя к новым необычным ощущениям и яркой кульминации!Gegg от Gvibe подойдёт мужчинам, которые ищут компактный и необычный мастурбатор. Маленький размер позволяет брать яйцо с собой в поездку, а форма не даст повода подумать, что вы везёте с собой секс-игрушку.А еще его можно использовать для фингеринга. Это когда игрушку выворачиваешь рельефом наружу, надеваешь на палец и стимулируешь влагалище партнерши. Таким образом, точка G, которую вы, возможно, еще не отыскали, найдется очень быстро.С игрушкой совместимы лубриканты на водной основе. Достаньте яйцо из пластиковой упаковки и налейте смазку внутрь. После использования тщательно промойте водой и воспользуйтесь специальным очистителем. Яйцо-мастурбатор Gvibe Gegg Red.  Яйцо-мастурбатор Gvibe Gegg Red. Модель: gvibe-10554. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: красный. Материал: нежный TPE (вторая кожа). Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4715,34 +4929,44 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>нежный TPE (вторая кожа)</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr">
         <is>
-          <t>100 мл</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
+      <c r="Y35" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>6.5</v>
+      </c>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
+      <c r="AF35" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>5</v>
+      </c>
       <c r="AH35" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4775,28 +4999,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>HUANGGANG LAZHI</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Возбуждающее массажное масло с</t>
+          <t>Фартук с сюрпризом для понимающей жены</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>id-25838-1299</t>
+          <t>id-14174-1299</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -4812,44 +5036,40 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25838/25838_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25838/25838_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25838/25838_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14174/14174_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14174/14174_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14174/14174_3_650.jpg</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Возбуждающее массажное масло со вкусом и ароматом сахарной ваты дарит легкое ощущение тепла и сладости, его можно использовать при эротическом массаже, оральных ласках и проникновении. Способ применения: нанесите продукт на все желаемые участки тела и предайтесь любви. . Возбуждающее массажное масло с согревающим эффектом и ароматом сахарной ваты Cotton Candy (30мл).  Возбуждающее массажное масло с согревающим эффектом и ароматом сахарной ваты Cotton Candy (30мл). Модель: intt-mg0002. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Аксессуары для игр &gt; Наборы и аксессуары. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">.Фартук с сюрпризом для понимающей жены Сколько мужа ни корми. . . Фартук с сюрпризом для понимающей жены Сколько мужа ни корми. .  Модель: huang-139237. Приколы. Эротические сувениры &gt; Белье. Эротические сувениры &gt; Сувениры. Цвет: зеленый. Батареек нет в комплекте. Бренд: HUANGGANG LAZHI. </t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
-          <t>30 мл</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -4895,32 +5115,40 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Свечи эротик</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>HUANGGANG LAZHI</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Массажная свеча для поцелуев INTT</t>
+          <t>Фартук с сюрпризом для чемпиона</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>id-22178-1299</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+          <t>id-14176-1299</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
         <v>99999</v>
@@ -4932,17 +5160,17 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22178/22178_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22178/22178_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22178/22178_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22178/22178_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14176/14176_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14176/14176_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14176/14176_3_650.jpg</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Запоминающийся массаж или горячая прелюдия? И то и другое, если в программе - массажная свеча для поцелуев Intt Strawberry с ароматом клубники. Создает первоклассный антураж. Аромат сладкой клубники наполняет пространство соблазном и задает настроение вечеру. Превращает обычный сеанс массажа в несравненный ритуал. Погасите свечу, и она превратится в растопленное массажное масло. Прикосновения теплых ладоней возбуждают и волнуют воображение. Открывает простор для сексуальных экспериментов. Восхитительный вкус клубники позволяет вашим поцелуям и ласкам быть максимально будоражащими. Клинически протестированный дерматологами и гинекологами состав не обжигает и деликатно ухаживает за кожей.Откройте для себя новые оттенки страсти вместе с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с гла</t>
+          <t xml:space="preserve">.Фартук с сюрпризом для чемпиона Занимался сумо.  Фартук с сюрпризом для чемпиона Занимался сумо. Модель: huang-139238. Приколы. Эротические сувениры &gt; Белье. Эротические сувениры &gt; Сувениры. Эротическое белье для мужчин &gt; Игровые костюмы, белье. Цвет: красный, серый. Батареек нет в комплекте. Бренд: HUANGGANG LAZHI. </t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -4959,17 +5187,13 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
-          <t>30 мл</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -5015,28 +5239,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Свечи эротик</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>HUANGGANG LAZHI</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Массажная свеча для поцелуев INTT Mint</t>
+          <t>Фартук с сюрпризом для лучшей во всем</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>id-22179-1299</t>
+          <t>id-14177-1299</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -5052,17 +5276,17 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22179/22179_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22179/22179_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22179/22179_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22179/22179_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14177/14177_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14177/14177_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14177/14177_3_650.jpg</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Запоминающийся массаж или горячая прелюдия? И то и другое, если в программе - массажная свеча для поцелуев Intt Mint с ароматом мяты. Создает первоклассный антураж. Аромат освежающей мяты наполняет пространство энергией релакса и задает настроение вечеру. Превращает обычный сеанс массажа в несравненный ритуал. Погасите свечу, и она превратится в растопленное массажное масло. Прикосновения теплых ладоней возбуждают и волнуют воображение. Открывает простор для сексуальных экспериментов. Восхитительный вкус мяты позволяет вашим поцелуям и ласкам быть максимально будоражащими. Клинически протестированный дерматологами и гинекологами состав не обжигает и деликатно ухаживает за кожей.Откройте для себя новые оттенки страсти вместе с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Массажная свеча для поцелуев INTT Mint с ароматом мяты (30 мл).  Массажная свеча для поцелуев INTT Mint с ароматом мяты (30 мл). Модель: intt-vb02. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">.Фартук с сюрпризом для лучшей во всем Отличница кулинарных наук.  Фартук с сюрпризом для лучшей во всем Отличница кулинарных наук. Модель: huang-139239. Приколы. Эротические сувениры &gt; Белье. Эротические сувениры &gt; Сувениры. Цвет: красный, желтый. Батареек нет в комплекте. Бренд: HUANGGANG LAZHI. </t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5079,17 +5303,13 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr">
         <is>
-          <t>30 мл</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -5135,28 +5355,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Свечи эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>INTT</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>для женщин и мужчин</t>
-        </is>
-      </c>
+          <t>HUANGGANG LAZHI</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Массажная свеча для поцелуев INTT</t>
+          <t>Пакет подарочный маленький Получу все,</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>id-22180-1299</t>
+          <t>id-14120-1299</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -5172,17 +5388,17 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22180/22180_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22180/22180_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22180/22180_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22180/22180_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14120/14120_1_650.jpg</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Запоминающийся массаж или горячая прелюдия? И то и другое, если в программе - массажная свеча для поцелуев Intt Nutella с ароматом Нутеллы. Создает первоклассный антураж. Аромат сладкой Нутеллы наполняет пространство соблазном и задает настроение вечеру. Превращает обычный сеанс массажа в несравненный ритуал. Погасите свечу, и она превратится в растопленное массажное масло. Прикосновения теплых ладоней возбуждают и волнуют воображение. Открывает простор для сексуальных экспериментов. Восхитительный вкус Нутеллы позволяет вашим поцелуям и ласкам быть максимально будоражащими. Клинически протестированный дерматологами и гинекологами состав не обжигает и деликатно ухаживает за кожей.Откройте для себя новые оттенки страсти вместе с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Массажная свеча для поцелуев INTT Nutella с ароматом Нутеллы (30 мл).  Массажная свеча для поцелуев INTT Nutella с ароматом "Нутеллы" (30 мл). Модель: intt-vb03. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">.Пакет подарочный маленький Получу все, что захочу. . . Пакет подарочный маленький Получу все, что захочу. .  Модель: huang-472485. Приколы. Анальные стимуляторы и пробки. Цвет: черный, красный. Батареек нет в комплекте. Бренд: HUANGGANG LAZHI. </t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5199,17 +5415,13 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr">
         <is>
-          <t>30 мл</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -5255,28 +5467,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Свечи эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>INTT</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>для женщин и мужчин</t>
-        </is>
-      </c>
+          <t>HUANGGANG LAZHI</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Массажная свеча для поцелуев INTT Peach</t>
+          <t>Пакет подарочный Это все тебе с</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>id-22176-1299</t>
+          <t>id-14128-1299</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -5292,17 +5500,17 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22176/22176_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22176/22176_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22176/22176_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22176/22176_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14128/14128_1_650.jpg</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Запоминающийся массаж или горячая прелюдия? И то и другое, если в программе - массажная свеча для поцелуев Intt Peach с ароматом персика. Создает первоклассный антураж. Аромат сладкого персика наполняет пространство соблазном и задает настроение вечеру. Превращает обычный сеанс массажа в несравненный ритуал. Погасите свечу, и она превратится в растопленное массажное масло. Прикосновения теплых ладоней возбуждают и волнуют воображение. Открывает простор для сексуальных экспериментов. Восхитительный вкус персика позволяет вашим поцелуям и ласкам быть максимально будоражащими. Клинически протестированный дерматологами и гинекологами состав не обжигает и деликатно ухаживает за кожей.Откройте для себя новые оттенки страсти вместе с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Массажная свеча для поцелуев INTT Peach с ароматом персика (30 мл).  Массажная свеча для поцелуев INTT Peach с ароматом персика (30 мл). Модель: intt-vb04. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">.Пакет подарочный Это все тебе с блестками.  Пакет подарочный Это все тебе с блестками. Модель: huang-472504. Приколы. Анальные стимуляторы и пробки. Цвет: черный, красный. Батареек нет в комплекте. Бренд: HUANGGANG LAZHI. </t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5319,17 +5527,13 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr">
         <is>
-          <t>30 мл</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -5375,28 +5579,28 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Свечи эротик</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>HUANGGANG LAZHI</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Массажная свеча для поцелуев INTT</t>
+          <t>Фартук идеальной женщины Готовлю</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>id-22177-1299</t>
+          <t>id-14150-1299</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -5412,17 +5616,17 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22177/22177_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22177/22177_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22177/22177_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22177/22177_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14150/14150_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14150/14150_2_650.jpg</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Запоминающийся массаж или горячая прелюдия? И то и другое, если в программе - массажная свеча для поцелуев Intt Caipirinha с ароматом лайма. Создает первоклассный антураж. Аромат сочного лайма наполняет пространство соблазном и задает настроение вечеру. Превращает обычный сеанс массажа в несравненный ритуал. Погасите свечу, и она превратится в растопленное массажное масло. Прикосновения теплых ладоней возбуждают и волнуют воображение. Открывает простор для сексуальных экспериментов. Восхитительный вкус лайма позволяет вашим поцелуям и ласкам быть максимально будоражащими. Клинически протестированный дерматологами и гинекологами состав не обжигает и деликатно ухаживает за кожей.Откройте для себя новые оттенки страсти вместе с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Массажная свеча для поцелуев INTT Caiprinha с ароматом лайма (30 мл).  Массажная свеча для поцелуев INTT Caiprinha с ароматом лайма (30 мл). Модель: intt-vb05. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">.Фартук идеальной женщины Готовлю вкусно, говорю мало, голова не болит. . . Фартук идеальной женщины Готовлю вкусно, говорю мало, голова не болит. .  Модель: huang-491649. Приколы. Эротические сувениры &gt; Белье. Эротические сувениры &gt; Сувениры. Цвет: красный, белый. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: HUANGGANG LAZHI. </t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5435,21 +5639,21 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>100% полиэстер</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr">
         <is>
-          <t xml:space="preserve">30 </t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t xml:space="preserve">30 </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -5495,28 +5699,28 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>HUANGGANG LAZHI</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Жидкий вибратор с согревающим эффектом</t>
+          <t>Фартук для поцелуев Целуюсь, лучше, чем</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>id-25830-1299</t>
+          <t>id-14160-1299</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -5532,44 +5736,44 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25830/25830_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25830/25830_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25830/25830_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14160/14160_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14160/14160_2_650.jpg</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Фруктовые вибрирующие волны Jambu откроют новый уровень стимуляции, повысят не только ощущения, но и помогут изучить и открыть самые тайные грани удовольствия. Всего одна капля жидкого вибратора Vibration! позволит ощутить яркий букет из тепла, вибрации и пульсации. Количество нанесения зависит от индивидуального уровня чувствительности каждого человека. Захватывающий вкус жвачки Bubble Gum не оставит партнеров равнодушными, вкус максимально приближен к натуральному.Жидкий вибратор приносит волны согревающих, пульсирующих и вибрирующих ощущений в течение более 30 минут. Продукт унисекс и может использоваться для проникновения, мастурбации, поцелуев, а также орального секса из-за его невероятного вкуса.Способ применения: нанесите 1,2 или 3 дозы (нажатия на помпу дозатор) на клитор или 1 дозу на половой член. Жидкий вибратор с согревающим эффектом и фруктовым вкусом Vibration! Bubble Gum (15 мл).  Жидкий вибратор с согревающим эффектом и фруктовым вкусом Vibration! Bubble Gum (15 мл). Модель: intt-vib0004. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Препараты и возбудители &gt; Чувствительный клитор. Препараты и возбудители &gt; Усиление оргазма. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">.Фартук для поцелуев Целуюсь, лучше, чем готовлю.  Фартук для поцелуев Целуюсь, лучше, чем готовлю. Модель: huang-491656. Приколы. Эротические сувениры &gt; Белье. Эротические сувениры &gt; Сувениры. Цвет: желтый, красный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: HUANGGANG LAZHI. </t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr"/>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>100% полиэстер</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr">
         <is>
-          <t>15 мл</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>15 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -5615,28 +5819,24 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>INTT</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>для женщин и мужчин</t>
-        </is>
-      </c>
+          <t>HUANGGANG LAZHI</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Парфюмированный спрей для тела INTT VEM</t>
+          <t>Пакет подарочный Отдамся за поцелуй</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>id-22190-1299</t>
+          <t>id-14111-1299</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -5652,17 +5852,17 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22190/22190_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22190/22190_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22190/22190_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22190/22190_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14111/14111_1_650.jpg</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Парфюмированный спрей для тела Intt Vem Transar Splash для двоих - философия яркой и насыщенной жизни. Изысканный и одновременно сдержанный аромат идеально подходит как мужчинам, так и женщинам. Легкая невесомая текстура быстро освежает даже при повышенной температуре воздуха.Будьте в ритме удачного дня с Intt Vem Transar Splash.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Парфюмированный спрей для тела INTT VEM TRANSAR SPLASH для двоих (120 мл).  Парфюмированный спрей для тела INTT VEM TRANSAR SPLASH для двоих (120 мл). Модель: intt-vr08. Косметика, препараты. Смазки, косметика &gt; Косметика. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">.Пакет подарочный Отдамся за поцелуй.  Пакет подарочный Отдамся за поцелуй. Модель: huang-565296. Приколы. Анальные стимуляторы и пробки. Цвет: бежевый, коричневый, красный. Батареек нет в комплекте. Бренд: HUANGGANG LAZHI. </t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5679,17 +5879,13 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr">
         <is>
-          <t>120 мл</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -5735,28 +5931,28 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>HUANGGANG LAZHI</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Разогревающее съедобное масло для</t>
+          <t>Фартук сексуальной хозяйки Полечимся?</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>id-22167-1299</t>
+          <t>id-14154-1299</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -5772,17 +5968,17 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22167/22167_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22167/22167_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22167/22167_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14154/14154_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14154/14154_2_650.jpg</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Искра. Буря. Экстаз. Может ли массаж подарить такое? Может, если это массажное масло для поцелуев Intt Vem Transar heat and chill со вкусом сахарной ваты. Позволяет экспериментировать. Поскольку масло обладает разогревающим эффектом и предназначено для поцелуев, можно не ограничивать себя в сценариях интимных игр. Нанесите Intt Fruit Sexy на тело, поцелуйте несколько чувствительных точек и подуйте на них в течение 3 секунд - возбуждение не заставит себя долго ждать. Провоцирует желание. Аппетитный аромат сладкой ваты создает игривое настроение и помогает расслабиться. Абсолютно безопасная и протестированная формула без сахара и глютена подходит даже аллергикам и диабетикам. Не оставляет ощущения липкости и легко смывается водой.INTT - удовольствие в каждой капле.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Разогревающее съедобное масло для массажа со вкусом сахарной ваты FRUIT SEXY (40 мл).  Разогревающее съедобное масло для массажа со вкусом сахарной ваты FRUIT SEXY (40 мл). Модель: intt-vt01. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">.Фартук сексуальной хозяйки Полечимся?.  Фартук сексуальной хозяйки Полечимся?. Модель: huang-597988. Приколы. Эротические сувениры &gt; Белье. Эротические сувениры &gt; Сувениры. Цвет: белый, красный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: HUANGGANG LAZHI. </t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -5795,21 +5991,21 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>100% полиэстер</t>
+        </is>
+      </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr">
         <is>
-          <t>40 мл</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>40 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -5855,28 +6051,28 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>INVERMA</t>
+          <t>HUANGGANG LAZHI</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Крем Erecta-Absolut для мужчин</t>
+          <t>Металлический брелок колокольчик</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>id-2505-1299</t>
+          <t>id-14175-1299</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -5892,44 +6088,40 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/2505/2505_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14175/14175_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14175/14175_2_650.jpg</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Крем Erecta-Absolut для мужчин.  Крем Erecta-Absolut для мужчин. Модель: inverma-20200. Косметика, препараты. Препараты и возбудители &gt; Усиление эрекции. Батареек нет в комплекте. Бренд: INVERMA. </t>
+          <t xml:space="preserve">.Металлический брелок колокольчик Сексуальная тревога (6,53,5).  Металлический брелок колокольчик Сексуальная тревога (6,53,5). Модель: huang-606226. Приколы. Эротические сувениры &gt; Сувениры. Цвет: красный, черный. Батареек нет в комплекте. Бренд: HUANGGANG LAZHI. </t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Германия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr">
         <is>
-          <t>18 мл</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>18 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -5975,28 +6167,28 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>IRRESISTIBLE</t>
+          <t>HUANGGANG LAZHI</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Интенсивный вакуумный вибромассажер</t>
+          <t>Фартук для идеального мужчины</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>id-22093-1299</t>
+          <t>id-14155-1299</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -6012,32 +6204,32 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22093/22093_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22093/22093_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22093/22093_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22093/22093_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22093/22093_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14155/14155_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14155/14155_2_650.jpg</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Коллекция Irresistible - это идеальное сочетание передовых технологий, высокого качества, эстетики и эргономичного дизайна. Технология работает мягко и проникновенно, стимулируя клитор с 11 различными уровнями интенсивности, от супер мягкого до мощного. Эти красиво оформленные игрушки окружают ваш клитор, не касаясь его, и стимулируют его мягкими воздушными волнами, создавая давление и уникальную проникающую в ткани вибрацию, которая не может быть достигнута без использования этой технологии. С созданием нашей технологии Touchless Airwave мы можем создать идеальную пульсацию звуковой волны, которая может проходить через ткани и стимулировать клиторальные нервные окончания, производя самые глубокие оргазмы, которые вы когда-либо испытывали! В отличие от других вибраторов, которые могут раздражать или десенсибилизировать ваш клитор чрезмерной стимуляцией, коллекция Irresistible не подвергается чрезмерной стимуляции, благодаря технологии Touchless Air Wave. Готовы ли вы испытать самые интенсивные оргазмы в вашей жизни? Водонепроницаемая и гигиеничная герметичная мембрана в игрушке на 100% водонепроницаема и имеет класс защиты IP70, который является максимально возможным уровнем. Женский массажер Invincible сделан из высококачественного бархатистого силикона и имеет аккумуляторную батарею с магнитным USB-портом для зарядки и прилагаемым зарядным устройством. Когда он полностью заряжен, а для его полной зарядки требуется 120 минут, его работа будет продолжаться 60 минут. Invincible имеет сверхмощный 10-скоростной мотор F1 нового поколения, который идеально подходит для создания самого интенсивного оргазма, который когда-либо испытывался! Три первые скорости регулируют степень вибрации, а семь последующих - различные паттерны пульсации. Invincible является на 100% водонепроницаемым - это означает, что вы можете его использовать в душе. Мягкий на ощупь, с двумя тихими моторами, гладкий и водонепроницаемый Invincible, за ним очень легко ухаживать. На массажер распространяется гарантия 1 год. Интенсивный вакуумный вибромассажер клитора Irresistible Invincible (11 реж. интенсив., 10 реж. вибрации).  Интенсивный вакуумный вибромассажер клитора Irresistible Invincible (11 реж. интенсив., 10 реж. вибрации). Модель: irresis-003blk. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Женские стимуляторы &gt; Клиторальные стимуляторы. Элитная продукция &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Элитная продукция. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: IRRESISTIBLE. </t>
+          <t xml:space="preserve">.Фартук для идеального мужчины Джентльмен на кухне.  Фартук для идеального мужчины Джентльмен на кухне. Модель: huang-608052. Приколы. Эротические сувениры &gt; Белье. Эротические сувениры &gt; Сувениры. Цвет: черный, белый. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: HUANGGANG LAZHI. </t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Нидерланды</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>100% полиэстер</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -6052,21 +6244,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W46" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>12</v>
-      </c>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
@@ -6085,7 +6267,7 @@
       <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr">
         <is>
-          <t>стимулятор, магнитное зарядное USB-устройство, инструкция</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
@@ -6105,40 +6287,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>J.B. INDUSTRIAL</t>
+          <t>HUANGGANG LAZHI</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Страпон на кожаных трусиках Magic Flesh</t>
+          <t>Фартук для соблазнительной хозяйки Да,</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>id-11511-1299</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-14116-1299</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
         <v>99999</v>
@@ -6150,12 +6324,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/11511/11511_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/11511/11511_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14116/14116_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14116/14116_2_650.jpg</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Страпон на кожаных трусиках Magic Flesh Strap On.  Страпон на кожаных трусиках Magic Flesh Strap On. Модель: jbind-99088. Секс-игрушки. Страпоны и фаллопротезы &gt; Страпоны. Страпоны и фаллопротезы &gt; Трусики и насадки. Страпоны и фаллопротезы &gt; Без вибрации. Цвет: телесный с черным. Материал: Soft Skin (вторая кожа), искусственная кожа. Батареек нет в комплекте. Бренд: J.B. INDUSTRIAL. </t>
+          <t xml:space="preserve">.Фартук для соблазнительной хозяйки Да, мой господин!.  Фартук для соблазнительной хозяйки Да, мой господин!. Модель: huang-743511. Приколы. Эротические сувениры &gt; Белье. Эротические сувениры &gt; Сувениры. Цвет: серый, розовый, белый. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: HUANGGANG LAZHI. </t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -6175,7 +6349,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Soft Skin (вторая кожа), искусственная кожа</t>
+          <t>100% полиэстер</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -6213,7 +6387,7 @@
       <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>трусики, фаллос</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
@@ -6233,28 +6407,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>JUST GLIDE</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>для женщин и мужчин</t>
-        </is>
-      </c>
+          <t>HUANGGANG LAZHI</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Медицинская анальная гель-смазка на</t>
+          <t>Пакет подарочный За хорошее поведение</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>id-20563-1299</t>
+          <t>id-14117-1299</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -6270,44 +6440,40 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20563/20563_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20563/20563_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14117/14117_1_650.jpg</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Высококачественная медицинская анальная гель-смазка на водной основе обеспечивает длительное скольжение.Содержит комплекс 7 трав, что обуславливает легкое расслабление и длительное скольжение.Дерматологически протестирована, подходит для чувствительной кожи.Легко смывается водой. Без запаха и вкуса.Подходит для использования с латексными презервативами и секс-игрушками. Медицинская анальная гель-смазка на водной основе Just Glide (20 мл).  Медицинская анальная гель-смазка на водной основе Just Glide (20 мл). Модель: jglide-6118320000. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: JUST GLIDE. </t>
+          <t xml:space="preserve">.Пакет подарочный За хорошее поведение.  Пакет подарочный За хорошее поведение. Модель: huang-819547. Приколы. Анальные стимуляторы и пробки. Цвет: красный, белый, зеленый. Батареек нет в комплекте. Бренд: HUANGGANG LAZHI. </t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Германия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr">
         <is>
-          <t>20 мл</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>20 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -6353,28 +6519,28 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>JUST GLIDE</t>
+          <t>HUANGGANG LAZHI</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Медицинская гель-смазка на водной</t>
+          <t>Фартук первоклассной красотки Десерт</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>id-20558-1299</t>
+          <t>id-14115-1299</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -6390,44 +6556,44 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20558/20558_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20558/20558_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14115/14115_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14115/14115_2_650.jpg</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Высококачественная медицинская гель-смазка на водной основе обеспечивает длительное скольжение.Дерматологически протестирована, подходит для чувствительной кожи.Легко смывается водой. Без запаха и вкуса.Подходит для использования с латексными презервативами и секс-игрушками. Медицинская гель-смазка на водной основе Just Glide (200 мл).  Медицинская гель-смазка на водной основе Just Glide (200 мл). Модель: jglide-6239200000. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: JUST GLIDE. </t>
+          <t xml:space="preserve">.Фартук первоклассной красотки Десерт будете?.  Фартук первоклассной красотки Десерт будете?. Модель: huang-838320. Приколы. Эротические сувениры &gt; Белье. Эротические сувениры &gt; Сувениры. Цвет: бежевый, голубой. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: HUANGGANG LAZHI. </t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Германия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr"/>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>100% полиэстер</t>
+        </is>
+      </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr">
         <is>
-          <t>200 мл</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -6473,28 +6639,28 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>JUST GLIDE</t>
+          <t>HUANGGANG LAZHI</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Анальная гель-смазка медицинская Just</t>
+          <t>Фартук пионерки кулинарии Готовь!</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>id-20559-1299</t>
+          <t>id-14112-1299</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -6510,44 +6676,44 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20559/20559_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20559/20559_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14112/14112_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14112/14112_2_650.jpg</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Высококачественная медицинская анальная гель-смазка на водной основе обеспечивает длительное скольжение.Содержит комплекс 7 трав, что обуславливает легкое расслабление и длительное скольжение.Дерматологически протестирована, подходит для чувствительной кожи.Легко смывается водой. Без запаха и вкуса.Подходит для использования с латексными презервативами и секс-игрушками. Анальная гель-смазка медицинская Just Glide Anal на водной основе (200 мл).  Анальная гель-смазка медицинская Just Glide Anal на водной основе (200 мл). Модель: jglide-6239460000. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: JUST GLIDE. </t>
+          <t xml:space="preserve">.Фартук пионерки кулинарии Готовь! Всегда готовь!.  Фартук пионерки кулинарии Готовь! Всегда готовь!. Модель: huang-838322. Приколы. Эротические сувениры &gt; Белье. Эротические сувениры &gt; Сувениры. Цвет: бежевый, белый, синий. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: HUANGGANG LAZHI. </t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Германия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr"/>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>100% полиэстер</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr">
         <is>
-          <t>200 мл</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -6593,28 +6759,28 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>JUST GLIDE</t>
+          <t>HUANGGANG LAZHI</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Медицинская гель-смазка на водной</t>
+          <t>Фартук сердцеедки Сладкая Бетси</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>id-23432-1299</t>
+          <t>id-14114-1299</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -6630,44 +6796,44 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23432/23432_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23432/23432_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14114/14114_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14114/14114_2_650.jpg</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Клубничный десерт!Высококачественная медицинская гель-смазка на водной основе с ароматом клубники обеспечивает длительное скольжение.Дерматологически протестирована, подходит для чувствительной кожи.Легко смывается водой. Подходит для использования с латексными презервативами и секс-игрушками. Медицинская гель-смазка на водной основе с клубничным ароматом Just Glide (50 мл).  Медицинская гель-смазка на водной основе с клубничным ароматом Just Glide (50 мл). Модель: jglide-6239540000. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: JUST GLIDE. </t>
+          <t xml:space="preserve">.Фартук сердцеедки Сладкая Бетси.  Фартук сердцеедки Сладкая Бетси. Модель: huang-892878. Приколы. Эротические сувениры &gt; Белье. Эротические сувениры &gt; Сувениры. Цвет: бежевый, красный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: HUANGGANG LAZHI. </t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Германия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr"/>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>100% полиэстер</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr">
         <is>
-          <t>50 мл</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -6713,28 +6879,28 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>JUST GLIDE</t>
+          <t>HUANGGANG LAZHI</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Медицинская гель-смазка на водной</t>
+          <t>Фартук партизанки Честь отдам</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>id-23433-1299</t>
+          <t>id-14113-1299</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -6750,44 +6916,44 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23433/23433_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14113/14113_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14113/14113_2_650.jpg</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Клубничный десерт!Высококачественная медицинская гель-смазка на водной основе с ароматом клубники обеспечивает длительное скольжение.Дерматологически протестирована, подходит для чувствительной кожи.Легко смывается водой. Подходит для использования с латексными презервативами и секс-игрушками. Медицинская гель-смазка на водной основе с клубничным ароматом Just Glide (200 мл).  Медицинская гель-смазка на водной основе с клубничным ароматом Just Glide (200 мл). Модель: jglide-6239620000. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: JUST GLIDE. </t>
+          <t xml:space="preserve">.Фартук партизанки Честь отдам.  Фартук партизанки Честь отдам. Модель: huang-892879. Приколы. Эротические сувениры &gt; Белье. Эротические сувениры &gt; Сувениры. Цвет: бежевый, зеленый. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: HUANGGANG LAZHI. </t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Германия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr"/>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>100% полиэстер</t>
+        </is>
+      </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
         <is>
-          <t>200 мл</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -6833,28 +6999,28 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>JUST GLIDE</t>
+          <t>HUANGGANG LAZHI</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Набор гель-смазок JUSTGLIDE (350 мл)</t>
+          <t>Фартук горячей красотки Согрешим!?</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>id-24087-1299</t>
+          <t>id-14149-1299</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -6870,44 +7036,44 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24087/24087_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14149/14149_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14149/14149_2_650.jpg</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Пробный набор классных смазок по супер цене!Все трое Just Glide-Gleitgele сразу: по 50 мл Waterbased, Strawberry и Anal.Клубничный десерт!Высококачественная медицинская гель-смазка на водной основе с ароматом клубники обеспечивает длительное скольжение.Дерматологически протестирована, подходит для чувствительной кожи.Легко смывается водой. Без запаха и вкуса.Подходит для использования с латексными презервативами и секс-игрушками.WaterbasedВысококачественная медицинская гель-смазка на водной основе обеспечивает длительное скольжение.Дерматологически протестирована, подходит для чувствительной кожи.Легко смывается водой. Без запаха и вкуса.Подходит для использования с латексными презервативами и секс-игрушками.AnalВысококачественная медицинская анальная гель-смазка на водной основе обеспечивает длительное скольжение.Содержит комплекс 7 трав, что обуславливает легкое расслабление и длительное скольжение.Дерматологически протестирована, подходит для чувствительной кожи.Легко смывается водой. Без запаха и вкуса.Подходит для использования с латексными презервативами и секс-игрушками. Набор гель-смазок JUSTGLIDE (350 мл).  Набор гель-смазок JUSTGLIDE (350 мл). Модель: jglide-6239890000. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Секс-наборы &gt; Секс-наборы. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: JUST GLIDE. </t>
+          <t xml:space="preserve">.Фартук горячей красотки Согрешим!?.  Фартук горячей красотки Согрешим!?. Модель: huang-892880. Приколы. Эротические сувениры &gt; Белье. Эротические сувениры &gt; Сувениры. Цвет: бежевый, синий. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: HUANGGANG LAZHI. </t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Германия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr"/>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>100% полиэстер</t>
+        </is>
+      </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr">
         <is>
-          <t>3 * 50 мл</t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>3 * 50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>3 * 50 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -6933,7 +7099,7 @@
       <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="inlineStr">
         <is>
-          <t>3 смазки</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO53" t="inlineStr">
@@ -6953,28 +7119,28 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>JUST GLIDE</t>
+          <t>HUANGGANG LAZHI</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Набор гель-смазок JUSTGLIDE (3200 мл)</t>
+          <t>Кубики в мешочке Действие и место на</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>id-24088-1299</t>
+          <t>id-14178-1299</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -6990,44 +7156,40 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24088/24088_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14178/14178_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14178/14178_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14178/14178_3_650.jpg</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классный набор супер смазок Just Glide!Все трое Just Glide-Gleitgele сразу: по 200 мл Waterbased, Strawberry и Anal.Клубничный десерт!Высококачественная медицинская гель-смазка на водной основе с ароматом клубники обеспечивает длительное скольжение.Дерматологически протестирована, подходит для чувствительной кожи.Легко смывается водой. Без запаха и вкуса.Подходит для использования с латексными презервативами и секс-игрушками.WaterbasedВысококачественная медицинская гель-смазка на водной основе обеспечивает длительное скольжение.Дерматологически протестирована, подходит для чувствительной кожи.Легко смывается водой. Без запаха и вкуса.Подходит для использования с латексными презервативами и секс-игрушками.AnalВысококачественная медицинская анальная гель-смазка на водной основе обеспечивает длительное скольжение.Содержит комплекс 7 трав, что обуславливает легкое расслабление и длительное скольжение.Дерматологически протестирована, подходит для чувствительной кожи.Легко смывается водой. Без запаха и вкуса.Подходит для использования с латексными презервативами и секс-игрушками. Набор гель-смазок JUSTGLIDE (3200 мл).  Набор гель-смазок JUSTGLIDE (3200 мл). Модель: jglide-6239970000. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Секс-наборы &gt; Секс-наборы. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: JUST GLIDE. </t>
+          <t xml:space="preserve">.Кубики в мешочке Действие и место на теле (2шт).  Кубики в мешочке Действие и место на теле (2шт). Модель: huang-978159. Приколы. Анальные стимуляторы и пробки. Эротические сувениры &gt; Сувениры. Цвет: бежевый. Батареек нет в комплекте. Бренд: HUANGGANG LAZHI. </t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Германия</t>
+          <t>Корея</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr">
         <is>
-          <t>3 * 200 мл</t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>3 * 200</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>3 * 200 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -7053,7 +7215,7 @@
       <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>3 смазки по 200 мл</t>
+          <t>2 шт</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
@@ -7073,49 +7235,57 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>JIMMY JANE</t>
+          <t>HUSTLER</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Свеча-массажное масло Pink Lotus</t>
+          <t>Ажурные стринги со шнуровкой и</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>id-7310-1299</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
+          <t>id-12432-1299</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
         <v>99999</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Свеча, кисточка для нанесения масла на тело, коробок спичек</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/7310/7310_7310_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12432/12432_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12432/12432_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12432/12432_3_650.jpg</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Свеча-массажное масло Pink Lotus.  Свеча-массажное масло Pink Lotus. Модель: jimjane-1001. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Эротические сувениры &gt; Сувениры. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: белый. стеклоБренд: JIMMY JANE. </t>
+          <t xml:space="preserve">.Ажурные стринги со шнуровкой и мини-вибратором ML.  Ажурные стринги со шнуровкой и мини-вибратором ML. Модель: hustler-hvp01mlb. Белье. Женские стимуляторы &gt; Вибромассажеры. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный. Материал: 90% полиэстер, 10% спандекс, пластик. LR 44 x 3 шт (в комплекте)Бренд: HUSTLER. </t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -7125,29 +7295,29 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>90% полиэстер, 10% спандекс, пластик</t>
+        </is>
+      </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr">
         <is>
-          <t xml:space="preserve">*7,5 </t>
-        </is>
-      </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>*7,5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t xml:space="preserve">*7,5 </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -7173,7 +7343,7 @@
       <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ширина 7 см</t>
+          <t>трусики, мини-вибратор</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
@@ -7193,13 +7363,13 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>JIMMY JANE</t>
+          <t>HUSTLER</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -7209,16 +7379,24 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Набор из двух менструальных чаш</t>
+          <t>Ажурные стринги со шнуровкой и</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>id-23404-1299</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+          <t>id-12428-1299</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
         <v>99999</v>
@@ -7230,12 +7408,12 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23404/23404_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23404/23404_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23404/23404_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23404/23404_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23404/23404_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23404/23404_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12428/12428_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12428/12428_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12428/12428_3_650.jpg</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Набор из двух менструальных чаш JIMMYJANE.  Набор из двух менструальных чаш JIMMYJANE. Модель: jimmyjane-10601. Секс-игрушки. Тампоны, чаши &gt; Менструальные чаши. Цвет: прозрачный. Материал: медицинский силикон. Батареек нет в комплекте. Бренд: JIMMY JANE. </t>
+          <t xml:space="preserve">.Ажурные стринги со шнуровкой и мини-вибратором SM.  Ажурные стринги со шнуровкой и мини-вибратором SM. Модель: hustler-hvp01smb. Белье. Женские стимуляторы &gt; Вибромассажеры. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный с розовым. Материал: 90% полиэстер, 10% спандекс, пластик. LR 44 x 3 шт (в комплекте)Бренд: HUSTLER. </t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -7245,17 +7423,17 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>медицинский силикон</t>
+          <t>90% полиэстер, 10% спандекс, пластик</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -7275,12 +7453,8 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>0.55</v>
-      </c>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="inlineStr"/>
       <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="inlineStr"/>
@@ -7297,7 +7471,7 @@
       <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr">
         <is>
-          <t>две менструальные чаши? фирменный мешочек для хранения, инструкция</t>
+          <t>стринги, мини-вибратор</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
@@ -7317,32 +7491,40 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>JINZHOU</t>
+          <t>HUSTLER</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ароматизированная латексная салфетка</t>
+          <t>Красные ажурные стринги с разрезом и</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>id-21871-1299</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+          <t>id-12928-1299</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
         <v>99999</v>
@@ -7354,32 +7536,32 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21871/21871_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21871/21871_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21871/21871_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12928/12928_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12928/12928_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12928/12928_3_650.jpg</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve">С ароматизированной салфеткой для анилингуса и кунилингуса Ваши оральные ласки будут не только приятными, но и защищенными. Ароматизированная латексная салфетка для анилингуса и кунилингуса (ваниль).  Ароматизированная латексная салфетка для анилингуса и кунилингуса (ваниль). Модель: jin-634. Презервативы. Презервативы &gt; Оральные. Цвет: белый. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: JINZHOU. </t>
+          <t xml:space="preserve">Трусики-тонг красного цвета с широким кружевным поясом и маленьким логотипом Hustler привлекают свое внимание необычным дизайном! Жемчужная нить с шестью бусинами для клиторальной стимуляции. Красные ажурные стринги с разрезом и жемчужной нитью ML.  Красные ажурные стринги с разрезом и жемчужной нитью ML. Модель: hustler-hvp02mlr. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: HUSTLER. </t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>натуральный латекс</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -7394,21 +7576,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W57" t="n">
-        <v>15</v>
-      </c>
-      <c r="X57" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>25</v>
-      </c>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="inlineStr"/>
@@ -7447,32 +7619,40 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>JINZHOU</t>
+          <t>HUSTLER</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ароматизированная латексная салфетка</t>
+          <t>Красные ажурные стринги с разрезом и</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>id-21869-1299</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
+          <t>id-12929-1299</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
         <v>99999</v>
@@ -7484,32 +7664,32 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21869/21869_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21869/21869_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21869/21869_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21869/21869_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12929/12929_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12929/12929_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12929/12929_3_650.jpg</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">С ароматизированной салфеткой для анилингуса и кунилингуса Ваши оральные ласки будут не только приятными, но и защищенными. Ароматизированная латексная салфетка для анилингуса и кунилингуса (клубника).  Ароматизированная латексная салфетка для анилингуса и кунилингуса (клубника). Модель: jin-636. Презервативы. Презервативы &gt; Оральные. Цвет: розовый. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: JINZHOU. </t>
+          <t xml:space="preserve">Трусики-тонг красного цвета с широким кружевным поясом и маленьким логотипом Hustler привлекают свое внимание необычным дизайном! Жемчужная нить с шестью бусинами для клиторальной стимуляции. Красные ажурные стринги с разрезом и жемчужной нитью SM.  Красные ажурные стринги с разрезом и жемчужной нитью SM. Модель: hustler-hvp02smr. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: HUSTLER. </t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>натуральный латекс</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -7524,21 +7704,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W58" t="n">
-        <v>15</v>
-      </c>
-      <c r="X58" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>25</v>
-      </c>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
       <c r="AD58" t="inlineStr"/>
@@ -7577,32 +7747,40 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>HUSTLER</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Классический лубрикант на водной основе</t>
+          <t>Ажурные стринги с бусинами и</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>id-21434-1299</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
+          <t>id-12426-1299</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
         <v>99999</v>
@@ -7614,12 +7792,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21434/21434_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12426/12426_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12426/12426_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12426/12426_3_650.jpg</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve">JO Personal Lubricant H2O Original - шелковистое долгое скольжение, никакой липкости. Рекомендуется во всем мире врачами и фармацевтами. Безопасен при использовании с латексными изделиями и игрушками.Применение: небольшое количество персонального лубриканта нанести на интимные участки. Для использования с презервативом, нанести на наружную сторону презерватива. Классический лубрикант на водной основе Lubricant H2O Original (30 мл).  Классический лубрикант на водной основе Lubricant H2O Original (30 мл). Модель: jo-10128. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">.Ажурные стринги с бусинами и мини-вибратором ML.  Ажурные стринги с бусинами и мини-вибратором ML. Модель: hustler-hvp03mlb. Белье. Женские стимуляторы &gt; Вибромассажеры. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный. Материал: 90% полиэстер, 10% спандекс, пластик. LR 44 x 3 шт (в комплекте)Бренд: HUSTLER. </t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -7629,29 +7807,29 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>90% полиэстер, 10% спандекс, пластик</t>
+        </is>
+      </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr">
         <is>
-          <t>30 мл</t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -7677,7 +7855,7 @@
       <c r="AM59" t="inlineStr"/>
       <c r="AN59" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стринги, мини-вибратор</t>
         </is>
       </c>
       <c r="AO59" t="inlineStr">
@@ -7697,32 +7875,40 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>HUSTLER</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Охлаждающий лубрикант на водной основе</t>
+          <t>Ажурные стринги с бусинами и</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>id-21433-1299</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
+          <t>id-12427-1299</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
         <v>99999</v>
@@ -7734,12 +7920,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21433/21433_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12427/12427_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12427/12427_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12427/12427_3_650.jpg</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Охлаждающий лубрикант на водной основе JO H2O Cooling -превосходное длительное скольжение без липкости и без скатываний. Без искусственных добавок. Нежный как силиконовый. Охлаждающий эффект создает легкие возбуждающие мурашки и делает прикосновение тел более желанным и контрастным, не жертвуя, ни одним из качеств JO. Обладает всеми преимуществами фаворита JO H2O, который заставит вас возвращаться к нему снова и снова.Применение: небольшое количество персонального любриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Охлаждающий лубрикант на водной основе Lubricant H2O Cooling (30 мл).  Охлаждающий лубрикант на водной основе Lubricant H2O Cooling (30 мл). Модель: jo-10232. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">.Ажурные стринги с бусинами и мини-вибратором SM.  Ажурные стринги с бусинами и мини-вибратором SM. Модель: hustler-hvp03smb. Белье. Женские стимуляторы &gt; Вибромассажеры. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный. Материал: 90% полиэстер, 10% спандекс, пластик. LR 44 x 3 шт (в комплекте)Бренд: HUSTLER. </t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -7749,29 +7935,29 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>90% полиэстер, 10% спандекс, пластик</t>
+        </is>
+      </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr">
         <is>
-          <t>30 мл</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -7797,7 +7983,7 @@
       <c r="AM60" t="inlineStr"/>
       <c r="AN60" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стринги, мини-вибратор</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
@@ -7817,32 +8003,40 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>HUSTLER</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Лубрикант на водной основе Hybrid</t>
+          <t>Кружевные танго с мини-вибратором ML</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>id-16585-1299</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
+          <t>id-12429-1299</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
         <v>99999</v>
@@ -7854,12 +8048,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16585/16585_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12429/12429_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12429/12429_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12429/12429_3_650.jpg</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Лубрикант на основе воды и кокосового масла JO COCO-Hybrid Lubricant - специальная формула для комфорта во время близости и интимного ухода. Уникальная комбинация из воды и кокосового масла 70.30 совмещает гладкое длительное скольжение без липкости и без скатываний с качественным деликатным уходом. Лубрикант представляет собой белый крем с легким ароматом натурального кокосового ореха. Долгое комфортное скольжение, уход, безопасное использование с любыми сексуальными игрушками и лёгкое, быстрое удаление любриканта водой. Рекомендуется во всем мире врачами и фармацевтами. Гладкая и шелковистая текстура и восхитительный аромат кокоса обеспечивают идеальную атмосферу в вашей спальне. Роскошная кремовая тектстура идеально подходит как так для парных игр, так и для соло. Лубрикант на водной основе Hybrid Lubricant ORIGINAL (30 мл).  Лубрикант на водной основе Hybrid Lubricant ORIGINAL (30 мл). Модель: jo-10554. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">.Кружевные танго с мини-вибратором ML.  Кружевные танго с мини-вибратором ML. Модель: hustler-hvp04mlb. Белье. Женские стимуляторы &gt; Вибромассажеры. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 90% полиэстер, 10% спандекс, пластик. LR 44 x 3 шт (в комплекте)Бренд: HUSTLER. </t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -7869,29 +8063,29 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>90% полиэстер, 10% спандекс, пластик</t>
+        </is>
+      </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr">
         <is>
-          <t>30 мл</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -7917,7 +8111,7 @@
       <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>танго, мини-вибратор</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
@@ -7937,32 +8131,40 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>HUSTLER</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Водно-кокосовый лубрикант с охлаждающим</t>
+          <t>Кружевные танго с мини-вибратором SM</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>id-16941-1299</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
+          <t>id-12433-1299</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
         <v>99999</v>
@@ -7974,12 +8176,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16941/16941_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12433/12433_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12433/12433_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12433/12433_3_650.jpg</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Лубрикант на основе воды и кокосового масла JO COCO-Hybrid Lubricant - специальная формула для комфорта во время близости и интимного ухода. Охлаждающий эффект создает легкие возбуждающие мурашки и делает прикосновение тел более желанным и контрастным, не жертвуя, ни одним из качеств JO. Уникальная комбинация из воды и кокосового масла 70.30 совмещает гладкое длительное скольжение без липкости и без скатываний с качественным деликатным уходом. Лубрикант представляет собой белый крем с легким ароматом натурального кокосового ореха. Долгое комфортное скольжение, уход, безопасное использование с любыми сексуальными игрушками и лёгкое, быстрое удаление любриканта водой. Рекомендуется во всем мире врачами и фармацевтами. Гладкая и шелковистая текстура и восхитительный аромат кокоса обеспечивают идеальную атмосферу в вашей спальне. Роскошная кремовая текcтура идеально подходит как так для парных игр, так и для соло. Водно-кокосовый лубрикант с охлаждающим эффектом Hybrid Lubricant COOLING (30 мл).  Водно-кокосовый лубрикант с охлаждающим эффектом Hybrid Lubricant COOLING (30 мл). Модель: jo-10555. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Пролонгирующие смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">.Кружевные танго с мини-вибратором SM.  Кружевные танго с мини-вибратором SM. Модель: hustler-hvp04smb. Белье. Женские стимуляторы &gt; Вибромассажеры. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 90% полиэстер, 10% спандекс, пластик. Батареек нет в комплекте. LR 44 x 3 шт (в комплект не входят)Бренд: HUSTLER. </t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -7989,29 +8191,29 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>90% полиэстер, 10% спандекс, пластик</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr">
         <is>
-          <t>30 мл</t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -8037,7 +8239,7 @@
       <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стринги, мини-вибратор</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
@@ -8057,32 +8259,40 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>HUSTLER</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант на водной основе</t>
+          <t>Кружевные стимулирующие стринги ML</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>id-21068-1299</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
+          <t>id-12431-1299</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
         <v>99999</v>
@@ -8094,12 +8304,12 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21068/21068_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12431/12431_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12431/12431_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12431/12431_3_650.jpg</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t xml:space="preserve">JO Gelato Pumpkin Spice - PH-сбалансированный интимный лубрикант на водной основе с потрясающим насыщенным вкусом пряной тыквы. Созданный с использованием глицерина исключительно растительного происхождения. Все ингредиенты высшего качества и только натуральные вкусовые экстракты. Формула лубриканта не содержит сахара, искусственных подсластителей, парабенов и пропилен гликоля. Обеспечивает комфортное нежное скольжение без липкости. Абсолютно безопасен для орального применения, не имеет послевкусия.Идеально подходит для орального секса и прелюдии. Может быть использован в качестве дополнения к естественной смазке. Небольшое количество наносится на половые органы, наружную сторону презерватива, интимную игрушку. Совместим с материалами большинства игрушек и презервативами. Легко смывается водой. Вкусовой лубрикант на водной основе Pumpkin Spice (Пряная тыква) 60 мл.  Вкусовой лубрикант на водной основе Pumpkin Spice (Пряная тыква) 60 мл. Модель: jo-10619. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Заманчивые женские трусики-тонг черного цвета на широкой эластичной кружевной резинке с металлической подвеской в виде буквы H. Трусики-тонг с открытой передней частью и стимулирующими 12-ю бусинками на резинке. Кружевные стимулирующие стринги ML.  Кружевные стимулирующие стринги ML. Модель: hustler-hvp05mlb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 90% полиэстер, 10% спандекс, пластик. Батареек нет в комплекте. Бренд: HUSTLER. </t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -8109,29 +8319,29 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>90% полиэстер, 10% спандекс, пластик</t>
+        </is>
+      </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr">
         <is>
-          <t>60 мл</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
@@ -8177,49 +8387,57 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>HUSTLER</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>экстра класс</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант на водной основе</t>
+          <t>Кружевные стимулирующие стринги SM</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>id-21067-1299</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
+          <t>id-12430-1299</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
         <v>99999</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант на водной основе Cookies &amp;amp</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21067/21067_21067_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12430/12430_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12430/12430_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12430/12430_3_650.jpg</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">JO Cookies &amp; Cream - PH-сбалансированный интимный лубрикант на водной основе с потрясающим насыщенным вкусом печенья с кремом. Созданный с использованием глицерина исключительно растительного происхождения. Все ингредиенты высшего качества и только натуральные вкусовые экстракты. Формула лубриканта не содержит сахара, искусственных подсластителей, парабенов и пропилен гликоля. Обеспечивает комфортное нежное скольжение без липкости. Абсолютно безопасен для орального применения, не имеет послевкусия.Идеально подходит для орального секса и прелюдии. Может быть использован в качестве дополнения к естественной смазке. Небольшое количество наносится на половые органы, наружную сторону презерватива, интимную игрушку. Совместим с материалами большинства игрушек и презервативами. Легко смывается водой. Вкусовой лубрикант на водной основе Cookies &amp; Cream (Печенье с кремом) 60 мл.  Вкусовой лубрикант на водной основе Cookies . Модель: jo-10620. США.  Cream (Печенье с кремом) 60 мл. Цвет: для женщин и мужчин. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Заманчивые женские трусики-тонг черного цвета на широкой эластичной кружевной резинке с металлической подвеской в виде буквы H. Трусики-тонг с открытой передней частью и стимулирующими 12-ю бусинками на резинке. Кружевные стимулирующие стринги SM.  Кружевные стимулирующие стринги SM. Модель: hustler-hvp05smb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 90% полиэстер, 10% спандекс, пластик. Батареек нет в комплекте. Бренд: HUSTLER. </t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -8229,15 +8447,19 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Косметика, препараты</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>Косметика, препараты</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>90% полиэстер, 10% спандекс, пластик</t>
+        </is>
+      </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr">
         <is>
@@ -8273,7 +8495,7 @@
       <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
@@ -8293,13 +8515,13 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>IMAGINATION</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -8309,12 +8531,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант на водной основе</t>
+          <t>Настольная эротическая игра 50 оттенков</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>id-21074-1299</t>
+          <t>id-12528-1299</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -8330,44 +8552,40 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21074/21074_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12528/12528_1_650.jpg</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">JO Strawberry-Cheesecake - PH-сбалансированный интимный лубрикант на водной основе с потрясающим насыщенным вкусом клубничного чизкейка. Созданный с использованием глицерина исключительно растительного происхождения. Все ингредиенты высшего качества и только натуральные вкусовые экстракты. Формула лубриканта не содержит сахара, искусственных подсластителей, парабенов и пропилен гликоля. Обеспечивает комфортное нежное скольжение без липкости. Абсолютно безопасен для орального применения, не имеет послевкусия.Идеально подходит для орального секса и прелюдии. Может быть использован в качестве дополнения к естественной смазке. Небольшое количество наносится на половые органы, наружную сторону презерватива, интимную игрушку. Совместим с материалами большинства игрушек и презервативами. Легко смывается водой. Вкусовой лубрикант на водной основе Strawberry-Cheesecake (Клубничный чизкейк) 60 мл.  Вкусовой лубрикант на водной основе Strawberry-Cheesecake (Клубничный чизкейк) 60 мл. Модель: jo-10621. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">.Настольная эротическая игра 50 оттенков серого.  Настольная эротическая игра 50 оттенков серого. Модель: imagin-46238. Приколы. Эротические сувениры &gt; Сувениры. Аксессуары для игр &gt; Эротические игры. Батареек нет в комплекте. Бренд: IMAGINATION. </t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr">
         <is>
-          <t>60 мл</t>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -8393,7 +8611,7 @@
       <c r="AM65" t="inlineStr"/>
       <c r="AN65" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t xml:space="preserve">300 карточек с романтическими вопросами, 150 жетонов богини, 1 вкладыш сабмиссив Кристиана Грея, 34 вкладыша мои ответы, 1 договор неразглашении, правила </t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
@@ -8413,28 +8631,28 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротив</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>стандартный</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант на водной основе</t>
+          <t>Масло для ванны и массажа INTT SEXY</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>id-21436-1299</t>
+          <t>id-22198-1299</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -8445,49 +8663,45 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>2 капсулы</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21436/21436_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22198/22198_22198_650.jpg</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t xml:space="preserve">JO H2O Candy Shop Flavored JO - PH-сбалансированный интимный лубрикант на водной основе с потрясающим насыщенным вкусом сахарной ваты. Созданный с использованием глицерина исключительно растительного происхождения. Все ингредиенты высшего качества и только натуральные вкусовые ароматизаторы. Формула лубриканта не содержит сахара, искусственных подсластителей, парабенов и пропилен гликоля. Обеспечивает комфортное нежное скольжение без липкости. Абсолютно безопасен для орального применения, не имеет послевкусия.Недетские сладости для недетской радости!Применение:Идеально подходит для орального секса и прелюдии. Может быть использован в качестве дополнения к естественной смазке. Небольшое количество наносится на половые органы, наружную сторону презерватива, интимную игрушку. Совместим с материалами большинства игрушек и презервативами. Легко смывается водой. Вкусовой лубрикант на водной основе Candy Shop Cotton Candy (сахарная вата) 60 мл.  Вкусовой лубрикант на водной основе Candy Shop Cotton Candy (сахарная вата) 60 мл. Модель: jo-10631. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Для себя, для него, для вас обоих - в одной капсуле масла Intt Sexy Case с ароматом Dolce &amp; Gabbana собрано все необходимое для страстных сеансов массажа и расслабляющих аромаванн. Подходит для любого вида массажа - от классического до эротического. Нежная текстура масла позволяет рукам плавно скользить по телу, а ненавязчивый аромат успокаивает и настраивает на получение удовольствия. Для растворения капсулы просто разогрейте ее в своих ладонях и добавьте немного воды. Идеально для принятия ванны. Благодаря натуральной желатиновой оболочке капсула легко растворяется в теплой воде, обогащая ее полезными свойствами масла подсолнуха и обволакивая приятным ароматом знаменитого парфюма. Достаточно бросить в ванну всего одну капсулу, чтобы кожа стала мягкой и бархатистой.Подарите себе энергию Intt Sexy Case.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Масло для ванны и массажа INTT SEXY CASE с ароматом Dolce &amp; Gabanna (2 капсулы).  Масло для ванны и массажа INTT SEXY CASE с ароматом Dolce . Модель: intt-blb01. Бразилия.  Gabanna (2 капсулы). Цвет: для женщин и мужчин. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Косметика, препараты</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Косметика, препараты</t>
         </is>
       </c>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr">
         <is>
-          <t>60 мл</t>
-        </is>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -8513,7 +8727,7 @@
       <c r="AM66" t="inlineStr"/>
       <c r="AN66" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>3 г</t>
         </is>
       </c>
       <c r="AO66" t="inlineStr">
@@ -8533,13 +8747,13 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротив</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -8549,12 +8763,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Набор лубрикантов для пары 2 to Tango</t>
+          <t>Масло для ванны и массажа INTT SEXY</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>id-25574-1299</t>
+          <t>id-22199-1299</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -8570,44 +8784,44 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25574/25574_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22199/22199_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22199/22199_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22199/22199_3_650.jpg</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 to Tango - набор из двух лубрикантов, предназначенный для пар. Для него предназначен лубрикант на водной основе с возбуждающим согревающим эффетом. Благодаря входящему в состав кайенскому перцу он обеспечит приток крови и набухание полового органа. Для нее предназначен лубрикант на водно-масляной основе с эффектом охлаждения. Благодаря сочетанию японского перца и розмарина он создает приятное ощущение мурашек и легкой вибрации.Лубриканты не содержат отдушек и вредных веществ, легко смываются водой и совместимы с материалами большинства игрушек.Применение:Набор можно использовать как одновременно, так и отдельно для каждого партнера. Лубриканты можно применять наоборот, а также смешивать в уникальные сочетания, создавая каждый раз новые эффекты. Набор лубрикантов для пары 2 to Tango (по 60 мл).  Набор лубрикантов для пары 2 to Tango (по 60 мл). Модель: jo-20004. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Препараты и возбудители &gt; Усиление эрекции. Секс-наборы &gt; Секс-наборы. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Для себя, для него, для вас обоих - в одной капсуле масла Intt Sexy Case с ароматом Gabriela Sabatini собрано все необходимое для страстных сеансов массажа и расслабляющих аромаванн. Подходит для любого вида массажа - от классического до эротического. Нежная текстура масла позволяет рукам плавно скользить по телу, а ненавязчивый аромат успокаивает и настраивает на получение удовольствия. Для растворения капсулы просто разогрейте ее в своих ладонях и добавьте немного воды. Идеально для принятия ванны. Благодаря натуральной желатиновой оболочке капсула легко растворяется в теплой воде, обогащая ее полезными свойствами масла подсолнуха и обволакивая приятным ароматом знаменитого парфюма. Достаточно бросить в ванну всего одну капсулу, чтобы кожа стала мягкой и бархатистой.Подарите себе энергию Intt Sexy Case.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Масло для ванны и массажа INTT SEXY CASE с ароматом Gabriela Sabatini (2 капсулы).  Масло для ванны и массажа INTT SEXY CASE с ароматом Gabriela Sabatini (2 капсулы). Модель: intt-blb02. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Смазки, косметика &gt; Расслабляющая ванна. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr">
         <is>
-          <t>60 , 60 мл</t>
+          <t>3 г</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>60 , 60</t>
+          <t>3</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>60 , 60 мл</t>
+          <t>3 г</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
@@ -8633,7 +8847,7 @@
       <c r="AM67" t="inlineStr"/>
       <c r="AN67" t="inlineStr">
         <is>
-          <t>два лубринканта</t>
+          <t>2 капсулы</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
@@ -8653,13 +8867,13 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротив</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -8669,12 +8883,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант на водной основе с</t>
+          <t>Масло для ванны и массажа INTT SEXY</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>id-27814-1299</t>
+          <t>id-22196-1299</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -8690,44 +8904,44 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27814/27814_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22196/22196_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22196/22196_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22196/22196_1_650.jpg</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Лубрикант на водной основе со вкусом одного изсамых популярных коктейлей - МОХИТО.Глицерин растительного происхождения в составе. Не содержит сахара, подсластителей и алкоголя. Безопасен для проглатывания и вагинального использования. Не нарушает микрофлору и кислотно-щелочной баланс влагалища.Лубрикант имеет водную основу, но она такая же нежная как силикон, обеспечивает долгое скольжение, никакой липкости, легко смывается водой. Лубрикант совместим с материалами большинства игрушек.JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость.Применение:Идеален для оральных игр. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейли из разных вкусов.Небольшое количество персонального лубриканта нанесите на интимные участки. Для использования с презервативом нанесите на наружную сторону презерватива. Безопасен для латексных изделий.Хранение:Держать в закрытом виде, хранить в сухом месте при температуре не ниже 5С и не выше 25С. Вкусовой лубрикант на водной основе с ароматом мохито JO H2O MOJITO (60 мл).  Вкусовой лубрикант на водной основе с ароматом мохито JO H2O MOJITO (60 мл). Модель: jo-21000. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Для себя, для него, для вас обоих - в одной капсуле масла Intt Sexy Case с ароматом Flower by Kenzo собрано все необходимое для страстных сеансов массажа и расслабляющих аромаванн. Подходит для любого вида массажа - от классического до эротического. Нежная текстура масла позволяет рукам плавно скользить по телу, а ненавязчивый аромат успокаивает и настраивает на получение удовольствия. Для растворения капсулы просто разогрейте ее в своих ладонях и добавьте немного воды. Идеально для принятия ванны. Благодаря натуральной желатиновой оболочке капсула легко растворяется в теплой воде, обогащая ее полезными свойствами масла подсолнуха и обволакивая приятным ароматом знаменитого парфюма. Достаточно бросить в ванну всего одну капсулу, чтобы кожа стала мягкой и бархатистой.Подарите себе энергию Intt Sexy Case.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Масло для ванны и массажа INTT SEXY CASE с ароматом Flower by Kenzo (2 капсулы).  Масло для ванны и массажа INTT SEXY CASE с ароматом Flower by Kenzo (2 капсулы). Модель: intt-blb03. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Смазки, косметика &gt; Расслабляющая ванна. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>3 г</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>3</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>3 г</t>
         </is>
       </c>
       <c r="W68" t="inlineStr"/>
@@ -8753,7 +8967,7 @@
       <c r="AM68" t="inlineStr"/>
       <c r="AN68" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>2 капсулы</t>
         </is>
       </c>
       <c r="AO68" t="inlineStr">
@@ -8773,13 +8987,13 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротив</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -8789,12 +9003,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант на водной основе JO</t>
+          <t>Масло для ванны и массажа INTT SEXY</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>id-27813-1299</t>
+          <t>id-22197-1299</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -8810,44 +9024,44 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27813/27813_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22197/22197_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22197/22197_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22197/22197_3_650.jpg</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Лубрикант на водной основе со вкусом одного из самых популярных коктейлей - ПИНА КОЛАДА.Глицерин растительного происхождения в составе. Не содержит сахара, подсластителей и алкоголя. Безопасен для проглатывания и вагинального использования. Не нарушает микрофлору и кислотно-щелочной баланс влагалища.Лубрикант имеет водную основу, но она такая же нежная как силикон, обеспечивает долгое скольжение, никакой липкости, легко смывается водой. Лубрикант совместим с материалами большинства игрушек.JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость.Применение:Идеален для оральных игр. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейли из разных вкусов.Небольшое количество персонального лубриканта нанесите на интимные участки. Для использования с презервативом нанесите на наружную сторону презерватива. Безопасен для латексных изделий. Вкусовой лубрикант на водной основе JO H2O PINA COLADA  (60 мл).  Вкусовой лубрикант на водной основе JO H2O PINA COLADA  (60 мл). Модель: jo-21001. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Для себя, для него, для вас обоих - в одной капсуле масла Intt Sexy Case с ароматом Ck Be собрано все необходимое для страстных сеансов массажа и расслабляющих аромаванн. Подходит для любого вида массажа - от классического до эротического. Нежная текстура масла позволяет рукам плавно скользить по телу, а ненавязчивый аромат успокаивает и настраивает на получение удовольствия. Для растворения капсулы просто разогрейте ее в своих ладонях и добавьте немного воды. Идеально для принятия ванны. Благодаря натуральной желатиновой оболочке капсула легко растворяется в теплой воде, обогащая ее полезными свойствами масла подсолнуха и обволакивая приятным ароматом знаменитого парфюма. Достаточно бросить в ванну всего одну капсулу, чтобы кожа стала мягкой и бархатистой.Подарите себе энергию Intt Sexy Case.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Масло для ванны и массажа INTT SEXY CASE с ароматом Ck Be (2 капсулы).  Масло для ванны и массажа INTT SEXY CASE с ароматом Ck Be (2 капсулы). Модель: intt-blb04. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Смазки, косметика &gt; Расслабляющая ванна. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>3 г</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>3</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>3 г</t>
         </is>
       </c>
       <c r="W69" t="inlineStr"/>
@@ -8873,7 +9087,7 @@
       <c r="AM69" t="inlineStr"/>
       <c r="AN69" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>2 капсулы</t>
         </is>
       </c>
       <c r="AO69" t="inlineStr">
@@ -8893,13 +9107,13 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротив</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -8909,12 +9123,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант на водной основе JO</t>
+          <t>Масло для ванны и массажа с ароматом</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>id-27812-1299</t>
+          <t>id-22183-1299</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -8930,44 +9144,44 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27812/27812_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22183/22183_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22183/22183_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22183/22183_1_650.jpg</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Лубрикант на водной основе со вкусом одного из самых популярных коктейлей - СЕКС НА ПЛЯЖЕ.Глицерин растительного происхождения в составе. Не содержит сахара, подсластителей и алкоголя. Безопасен для проглатывания и вагинального использования. Не нарушает микрофлору и кислотно-щелочной баланс влагалища.Лубрикант имеет водную основу, но она такая же нежная как силикон, обеспечивает долгое скольжение, никакой липкости, легко смывается водой. Лубрикант совместим с материалами большинства игрушек.JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость.Применение:Идеален для оральных игр. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейли из разных вкусов.Небольшое количество персонального лубриканта нанесите на интимные участки. Для использования с презервативом нанесите на наружную сторону презерватива. Безопасен для латексных изделий.Хранение:Держать в закрытом виде, хранить в сухом месте при температуре не ниже 5С и не выше 25С. Вкусовой лубрикант на водной основе JO H2O SEX ON THE BEACH (60 мл).  Вкусовой лубрикант на водной основе JO H2O SEX ON THE BEACH (60 мл). Модель: jo-21002. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Масло для массажа и аромаванн Intt Sexy Fluf с шикарным ароматом шоколада - идеальное средство для расслабления и ухода за телом. Аромаванна с маслом Intt Sexy Fluf будоражит ярким ароматом шоколада и помогает отвлечься от будничных мыслей. Питательные компоненты ухаживают за кожей, делают ее мягкой, нежной и увлажненной. Просто поместите одну капсулу в ванну, и наслаждайтесь ее потрясающим эффектом. Расслабляющий массаж с маслом Intt Sexy Fluf возбуждающе действует на партнера. Разогрейте капсулу в ладонях, добавьте немного воды и используйте получившееся масло для массажа. Гладкая текстура придаст прикосновениям легкость, а безопасный состав позволит подключить к ласкам горячие поцелуи.Включите страсть на полную с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Масло для ванны и массажа с ароматом шоколада INTT SEXY FLUF (2 капсулы).  Масло для ванны и массажа с ароматом шоколада INTT SEXY FLUF (2 капсулы). Модель: intt-blb05. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Смазки, косметика &gt; Расслабляющая ванна. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>3 г</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>3</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>3 г</t>
         </is>
       </c>
       <c r="W70" t="inlineStr"/>
@@ -8993,7 +9207,7 @@
       <c r="AM70" t="inlineStr"/>
       <c r="AN70" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>2 капсулы</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
@@ -9013,13 +9227,13 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротив</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -9029,12 +9243,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Ароматизированный лубрикант на водной</t>
+          <t>Масло для ванны и массажа с ароматом</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>id-18548-1299</t>
+          <t>id-22182-1299</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -9050,44 +9264,44 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/18548/18548_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22182/22182_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22182/22182_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22182/22182_2_650.jpg</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный лубрикант Ананас на водной основе JO Flavored Juicy Pineapple - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Ароматизированный лубрикант на водной основе JUICY PINEAPPLE (ананас) 30 мл.  Ароматизированный лубрикант на водной основе JUICY PINEAPPLE (ананас) 30 мл. Модель: jo-30122. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Масло для массажа и аромаванн Intt Sexy Fluf с шикарным ароматом фруктов - идеальное средство для расслабления и ухода за телом. Аромаванна с маслом Intt Sexy Fluf будоражит ярким ароматом фруктов и помогает отвлечься от будничных мыслей. Питательные компоненты ухаживают за кожей, делают ее мягкой, нежной и увлажненной. Просто поместите одну капсулу в ванну, и наслаждайтесь ее потрясающим эффектом. Расслабляющий массаж с маслом Intt Sexy Fluf возбуждающе действует на партнера. Разогрейте капсулу в ладонях, добавьте немного воды и используйте получившееся масло для массажа. Гладкая текстура придаст прикосновениям легкость, а безопасный состав позволит подключить к ласкам горячие поцелуи.Включите страсть на полную с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Масло для ванны и массажа с ароматом фруктов INTT SEXY FLUF (2 капсулы).  Масло для ванны и массажа с ароматом фруктов INTT SEXY FLUF (2 капсулы). Модель: intt-blb06. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Смазки, косметика &gt; Расслабляющая ванна. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>3 г</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>3</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>3 г</t>
         </is>
       </c>
       <c r="W71" t="inlineStr"/>
@@ -9113,7 +9327,7 @@
       <c r="AM71" t="inlineStr"/>
       <c r="AN71" t="inlineStr">
         <is>
-          <t>Состав: глицерин, вода, ароматизатор, натрий-карбоксиметилцеллюлоза, метилпарабен, пропилпарабен.</t>
+          <t>2 капсулы</t>
         </is>
       </c>
       <c r="AO71" t="inlineStr">
@@ -9133,28 +9347,28 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротив</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Охлаждающий лубрикант на силиконовой</t>
+          <t>Масло для ванны и массажа с ароматом</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>id-16942-1299</t>
+          <t>id-22185-1299</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -9170,44 +9384,44 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16942/16942_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22185/22185_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22185/22185_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22185/22185_1_650.jpg</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Силиконовый охлаждающий лубрикант JO Premium COOL - силиконовый лубрикант высшего качества. Шелковистый и нежный, абсолютно не липкий. Охлаждающий эффект создает легкие возбуждающие мурашки и делает прикосновение тел более желанным и контрастным, не жертвуя, ни одним из качеств JO. Долгое гладкое скольжение. Не требует смывания водой. Идеален для игр в душе. После применения испаряется с кожи, оставляя ее нежной и увлажненной. Рекомендуется во всем мире врачами и фармацевтами. Безопасен при использовании с латексными изделиями. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Охлаждающий лубрикант на силиконовой основе Premium Lubricant Cool (30 мл).  Охлаждающий лубрикант на силиконовой основе Premium Lubricant Cool (30 мл). Модель: jo-30231. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Масло для массажа и аромаванн Intt Sexy Fluf с шикарным ароматом винограда - идеальное средство для расслабления и ухода за телом. Аромаванна с маслом Intt Sexy Fluf будоражит ярким ароматом винограда и помогает отвлечься от будничных мыслей. Питательные компоненты ухаживают за кожей, делают ее мягкой, нежной и увлажненной. Просто поместите одну капсулу в ванну, и наслаждайтесь ее потрясающим эффектом. Расслабляющий массаж с маслом Intt Sexy Fluf возбуждающе действует на партнера. Разогрейте капсулу в ладонях, добавьте немного воды и используйте получившееся масло для массажа. Гладкая текстура придаст прикосновениям легкость, а безопасный состав позволит подключить к ласкам горячие поцелуи.Включите страсть на полную с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Масло для ванны и массажа с ароматом винограда INTT SEXY FLUF (2 капсулы).  Масло для ванны и массажа с ароматом винограда INTT SEXY FLUF (2 капсулы). Модель: intt-blb08. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Смазки, косметика &gt; Расслабляющая ванна. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>3 г</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>3</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>3 г</t>
         </is>
       </c>
       <c r="W72" t="inlineStr"/>
@@ -9233,7 +9447,7 @@
       <c r="AM72" t="inlineStr"/>
       <c r="AN72" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>2 капсулы</t>
         </is>
       </c>
       <c r="AO72" t="inlineStr">
@@ -9253,13 +9467,13 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротив</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -9269,12 +9483,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант на водной основе</t>
+          <t>Масло для ванны и массажа с ароматом</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>id-16934-1299</t>
+          <t>id-22184-1299</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -9290,44 +9504,44 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16934/16934_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22184/22184_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22184/22184_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22184/22184_3_650.jpg</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный лубрикант Яблоко на водной основе JO Flavored Green Apple - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой лубрикант на водной основе Flavored Green Apple (яблоко) 30 мл.  Вкусовой лубрикант на водной основе Flavored Green Apple (яблоко) 30 мл. Модель: jo-30385. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Масло для массажа и аромаванн Intt Sexy Fluf с шикарным ароматом клубники - идеальное средство для расслабления и ухода за телом. Аромаванна с маслом Intt Sexy Fluf будоражит ярким ароматом клубники и помогает отвлечься от будничных мыслей. Питательные компоненты ухаживают за кожей, делают ее мягкой, нежной и увлажненной. Просто поместите одну капсулу в ванну, и наслаждайтесь ее потрясающим эффектом. Расслабляющий массаж с маслом Intt Sexy Fluf возбуждающе действует на партнера. Разогрейте капсулу в ладонях, добавьте немного воды и используйте получившееся масло для массажа. Гладкая текстура придаст прикосновениям легкость, а безопасный состав позволит подключить к ласкам горячие поцелуи.Включите страсть на полную с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Масло для ванны и массажа с ароматом клубники INTT SEXY FLUF (2 капсулы).  Масло для ванны и массажа с ароматом клубники INTT SEXY FLUF (2 капсулы). Модель: intt-blb09. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Смазки, косметика &gt; Расслабляющая ванна. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>3 г</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>3</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>3 г</t>
         </is>
       </c>
       <c r="W73" t="inlineStr"/>
@@ -9353,7 +9567,7 @@
       <c r="AM73" t="inlineStr"/>
       <c r="AN73" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>2 капсулы</t>
         </is>
       </c>
       <c r="AO73" t="inlineStr">
@@ -9373,13 +9587,13 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -9389,12 +9603,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Ароматный стимулирующий гель для сосков</t>
+          <t>Разогревающее съедобное масло для</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>id-16936-1299</t>
+          <t>id-22158-1299</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -9410,44 +9624,44 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16936/16936_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16936/16936_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22158/22158_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22158/22158_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22158/22158_3_650.jpg</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Съедобный ароматизированный стимулирующий гель для сосков со вкусом клубники Nipple Titillator Strawberry создаёт чувственное и согревающее покалывание, пробуждающее желание. Клубника отвечает за выработку эндорфинов, усиливающих сексуальное желание. Гель пробуждает эротические ощущения, а также улучшает циркуляцию крови, повышая сексуальное стремление. Nipple Titillator Strawberry съедобный, безопасный, из натуральных ингредиентов. Ароматный стимулирующий гель для сосков со вкусом клубники Nipple Titillator Strawberry (30 мл).  Ароматный стимулирующий гель для сосков со вкусом клубники Nipple Titillator Strawberry (30 мл). Модель: jo-30488. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Красивая грудь &gt; Кремы, препараты. Красивая грудь &gt; Кремы, препараты. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: красный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Искра. Буря. Экстаз. Может ли массаж подарить такое? Может, если это массажное масло для поцелуев Intt Fruit Sexy с ароматом сладкого брауни. Позволяет экспериментировать. Поскольку масло обладает разогревающим эффектом и предназначено для поцелуев, можно не ограничивать себя в сценариях интимных игр. Нанесите Intt Fruit Sexy на тело, поцелуйте несколько чувствительных точек и подуйте на них в течение 3 секунд - возбуждение не заставит себя долго ждать. Провоцирует желание. Аппетитный аромат сладкого брауни создает игривое настроение и помогает расслабиться. Абсолютно безопасная и протестированная формула без сахара и глютена подходит даже аллергикам и диабетикам. Не оставляет ощущения липкости и легко смывается водой.INTT - удовольствие в каждой капле.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Разогревающее съедобное масло для массажа с ароматом сладкого брауни FRUIT SEXY (40 мл).  Разогревающее съедобное масло для массажа с ароматом сладкого брауни FRUIT SEXY (40 мл). Модель: intt-fs14. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>40 мл</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>40 мл</t>
         </is>
       </c>
       <c r="W74" t="inlineStr"/>
@@ -9493,13 +9707,13 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -9509,12 +9723,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Нейтральный любрикант на силиконовой</t>
+          <t>Жидкий массажный гель INTT VIBRATION</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>id-10247-1299</t>
+          <t>id-22172-1299</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -9530,44 +9744,44 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10247/10247_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22172/22172_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22172/22172_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22172/22172_3_650.jpg</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классический лубрикант на силиконовой основе JO Premium - силиконовый лубрикант высшего качества. Шелковистый и нежный, абсолютно не липкий. Долгое гладкое скольжение. Не требует смывания водой. Идеален для игр в душе. После применения испаряется с кожи, оставляя ее нежной и увлажненной. Рекомендуется во всем мире врачами и фармацевтами. Безопасен при использовании с латексными изделиями. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Нейтральный любрикант на силиконовой основе Premium Lubricant (120 мл).  Нейтральный любрикант на силиконовой основе Premium Lubricant (120 мл). Модель: jo-40005. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Возбуждающий массажный гель с вибрирующим эффектом Intt Vibration Mint - это яркие эксперименты с сумасшедшими эмоциями. Эффект вибрации добавляет массажу необычные ощущения - приятная пульсация пробуждает каждую клеточку тела и задает ритм наслаждению. Слегка разогревающий эффект распаляет желание и заставляет эрогенные зоны переключиться в режим полной боевой готовности. Потрясающий вкус мяты делает поцелуи, прелюдию и оральный секс настоящим удовольствием. Супергладкая текстура мягко обволакивает тело, позволяя рукам легко и бесконечно нежно скользить по нему. Клинически протестированный состав Intt Vibration Mint безопасен для организма. Не вызывает аллергии. Не оставляет липких следов. Просто смывается водой.Позвольте себе волнующее приключение с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Жидкий массажный гель INTT VIBRATION Mint с эффектом вибрации и ароматом мяты (17 мл).  Жидкий массажный гель INTT VIBRATION Mint с эффектом вибрации и ароматом мяты (17 мл). Модель: intt-fu21. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Препараты и возбудители &gt; Чувствительный клитор. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>17 мл</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>17</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>17 мл</t>
         </is>
       </c>
       <c r="W75" t="inlineStr"/>
@@ -9619,7 +9833,7 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -9629,12 +9843,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Нейтральный лубрикант на силиконовой</t>
+          <t>Жидкий массажный гель INTT VIBRATION</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>id-10242-1299</t>
+          <t>id-22173-1299</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -9650,44 +9864,44 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10242/10242_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22173/22173_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22173/22173_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22173/22173_3_650.jpg</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классический лубрикант на силиконовой основе JO Premium - силиконовый лубрикант высшего качества. Шелковистый и нежный, абсолютно не липкий. Долгое гладкое скольжение. Не требует смывания водой. Идеален для игр в душе. После применения испаряется с кожи, оставляя ее нежной и увлажненной. Рекомендуется во всем мире врачами и фармацевтами. Безопасен при использовании с латексными изделиями. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Нейтральный лубрикант на силиконовой основе Premium Lubricant (60 мл).  Нейтральный лубрикант на силиконовой основе Premium Lubricant (60 мл). Модель: jo-40006. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Возбуждающий массажный гель с вибрирующим эффектом Intt Vibration Strawberry - это яркие эксперименты с сумасшедшими эмоциями. Эффект вибрации добавляет массажу необычные ощущения - приятная пульсация пробуждает каждую клеточку тела и задает ритм наслаждению. Слегка разогревающий эффект распаляет желание и заставляет эрогенные зоны переключиться в режим полной боевой готовности. Потрясающий вкус клубники делает поцелуи, прелюдию и оральный секс настоящим удовольствием. Супергладкая текстура мягко обволакивает тело, позволяя рукам легко и бесконечно нежно скользить по нему. Клинически протестированный состав Intt Vibration Strawberry безопасен для организма. Не вызывает аллергии. Не оставляет липких следов. Просто смывается водой.Позвольте себе волнующее приключение с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Жидкий массажный гель INTT VIBRATION Strawberry с эффектом вибрации и ароматом клубники (17 мл).  Жидкий массажный гель INTT VIBRATION Strawberry с эффектом вибрации и ароматом клубники (17 мл). Модель: intt-fu22. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Препараты и возбудители &gt; Чувствительный клитор. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>17 мл</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>17</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>17 мл</t>
         </is>
       </c>
       <c r="W76" t="inlineStr"/>
@@ -9739,22 +9953,18 @@
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>для женщин и мужчин</t>
-        </is>
-      </c>
+          <t>INTT</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Нейтральный лубрикант на водной основе</t>
+          <t>Жидкий массажный гель INTT VIBRATION</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>id-10241-1299</t>
+          <t>id-22175-1299</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -9770,44 +9980,44 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10241/10241_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22175/22175_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22175/22175_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22175/22175_3_650.jpg</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t xml:space="preserve">JO Personal Lubricant H2O Original - шелковистое долгое скольжение, никакой липкости. Рекомендуется во всем мире врачами и фармацевтами. Безопасен при использовании с латексными изделиями и игрушками.Применение: небольшое количество персонального лубриканта нанести на интимные участки. Для использования с презервативом, нанести на наружную сторону презерватива. Нейтральный лубрикант на водной основе Lubricant H2O (60 мл).  Нейтральный лубрикант на водной основе Lubricant H2O (60 мл). Модель: jo-40034. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Возбуждающий массажный гель с вибрирующим эффектом Intt Vibration Chocolate - это яркие эксперименты с сумасшедшими эмоциями. Эффект вибрации добавляет массажу необычные ощущения - приятная пульсация пробуждает каждую клеточку тела и задает ритм наслаждению. Слегка разогревающий эффект распаляет желание и заставляет эрогенные зоны переключиться в режим полной боевой готовности. Потрясающий вкус шоколада делает поцелуи, прелюдию и оральный секс настоящим удовольствием. Супергладкая текстура мягко обволакивает тело, позволяя рукам легко и бесконечно нежно скользить по нему. Клинически протестированный состав Intt Vibration Chocolate безопасен для организма. Не вызывает аллергии. Не оставляет липких следов. Просто смывается водой.Позвольте себе волнующее приключение с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Жидкий массажный гель INTT VIBRATION Chocolate с эффектом вибрации и ароматом шоколада (17 мл).  Жидкий массажный гель INTT VIBRATION Chocolate с эффектом вибрации и ароматом шоколада (17 мл). Модель: intt-fu23. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Препараты и возбудители &gt; Чувствительный клитор. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>17 мл</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>17</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>17 мл</t>
         </is>
       </c>
       <c r="W77" t="inlineStr"/>
@@ -9859,7 +10069,7 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -9869,12 +10079,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Классический лубрикант на водной основе</t>
+          <t>Жидкий массажный гель INTT VIBRATION</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>id-10250-1299</t>
+          <t>id-22174-1299</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -9890,44 +10100,44 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10250/10250_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22174/22174_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22174/22174_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22174/22174_3_650.jpg</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t xml:space="preserve">JO Personal Lubricant H2O Original - шелковистое долгое скольжение, никакой липкости. Рекомендуется во всем мире врачами и фармацевтами. Безопасен при использовании с латексными изделиями и игрушками.Применение: небольшое количество персонального лубриканта нанести на интимные участки. Для использования с презервативом, нанести на наружную сторону презерватива. Классический лубрикант на водной основе Lubricant H2O Original (120 мл).  Классический лубрикант на водной основе Lubricant H2O Original (120 мл). Модель: jo-40035. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Возбуждающий массажный гель с вибрирующим эффектом Intt Vibration Dulce de Leche - это яркие эксперименты с сумасшедшими эмоциями. Эффект вибрации добавляет массажу необычные ощущения - приятная пульсация пробуждает каждую клеточку тела и задает ритм наслаждению. Слегка разогревающий эффект распаляет желание и заставляет эрогенные зоны переключиться в режим полной боевой готовности. Потрясающий вкус сгущенного молока делает поцелуи, прелюдию и оральный секс настоящим удовольствием. Супергладкая текстура мягко обволакивает тело, позволяя рукам легко и бесконечно нежно скользить по нему. Клинически протестированный состав Intt Vibration Dulce de Leche безопасен для организма. Не вызывает аллергии. Не оставляет липких следов. Просто смывается водой.Позвольте себе волнующее приключение с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Жидкий массажный гель INTT VIBRATION Dulce de Leche с эффектом вибрации и ароматом сгущенного молока (17 мл).  Жидкий массажный гель INTT VIBRATION Dulce de Leche с эффектом вибрации и ароматом сгущенного молока (17 мл). Модель: intt-fu29. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Препараты и возбудители &gt; Чувствительный клитор. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>17 мл</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>17</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>17 мл</t>
         </is>
       </c>
       <c r="W78" t="inlineStr"/>
@@ -9979,7 +10189,7 @@
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -9989,12 +10199,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Возбуждающий и согревающий лубрикант на</t>
+          <t>Жидкий массажный гель INTT VIBRATION</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>id-10237-1299</t>
+          <t>id-22192-1299</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -10010,44 +10220,44 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10237/10237_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22192/22192_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22192/22192_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22192/22192_3_650.jpg</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классический возбуждающий лубрикант на водной основе JO H2O Warming - долгое комфортное скольжение, без липкости, без скатываний. Максимально комфортная текстура для идеального скольжения. Дополнительное возбуждающее тепло возникает только при трении. Чем интенсивнее контакт, тем интенсивнее согревающий эффект без жжения. Рекомендуется во всем мире врачами и фармацевтами. Безопасен при использовании с латексными изделиями. Применение: небольшое количество персонального лубриканта нанести на интимные участки. Для использования с презервативом, нанести на наружную сторону презерватива. Возбуждающий и согревающий лубрикант на водной основе Lubricant H2O Warming (60 мл).  Возбуждающий и согревающий лубрикант на водной основе Lubricant H2O Warming (60 мл). Модель: jo-40080. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Охлаждающий массажный гель с вибрирующим эффектом Intt Vibration Extra strong Ice - это яркие эксперименты с сумасшедшими эмоциями. Эффект вибрации добавляет массажу необычные ощущения - приятная пульсация пробуждает каждую клеточку тела и задает ритм наслаждению. Охлаждающий эффект будоражит легким покалыванием и увеличивает восприимчивость кожи к ласкам. Потрясающий вкус мяты делает поцелуи, прелюдию и оральный секс настоящим удовольствием. Супергладкая текстура мягко обволакивает тело, позволяя рукам легко и бесконечно нежно скользить по нему. Клинически протестированный состав Intt Vibration Extra strong Ice безопасен для организма. Не вызывает аллергии. Не оставляет липких следов. Просто смывается водой.Позвольте себе волнующее приключение с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Жидкий массажный гель INTT VIBRATION Extra-strong Ice с охлаждающим эффектом и эффектом вибрации (17 мл).  Жидкий массажный гель INTT VIBRATION Extra-strong Ice с охлаждающим эффектом и эффектом вибрации (17 мл). Модель: intt-fu33. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Препараты и возбудители &gt; Чувствительный клитор. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>17 мл</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>17</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>17 мл</t>
         </is>
       </c>
       <c r="W79" t="inlineStr"/>
@@ -10093,28 +10303,28 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Анальный лубрикант на водной основе</t>
+          <t>Блеск для губ INTT GLOSS VIBE Mint с</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>id-10249-1299</t>
+          <t>id-22195-1299</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -10130,44 +10340,44 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10249/10249_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22195/22195_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22195/22195_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22195/22195_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22195/22195_3_650.jpg</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальный лубрикант на водной основе JO Anal H2O - долгое гладкое скольжение без липкости, без скатываний. Густая формула. Самый качественный лубрикант на рынке. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Анальный лубрикант на водной основе Anal H2O (120 мл).  Анальный лубрикант на водной основе Anal H2O (120 мл). Модель: jo-40107. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Разжечь страсть и свести с ума одним поцелуем? Почему бы и нет, когда это так легко с блеском для губ Intt Gloss Vibe Mint. Создает вибрирующий эффект. При поцелуях вибрация передается партнеру, что делает этот момент запоминающимся и возбуждающим желание. Сочный вкус мяты и легкое покалывание увеличивают удовольствие от оральных ласк. Невесомая текстура и прозрачный цвет позволяют использовать блеск в повседневной жизни в качестве бальзама. Безопасный состав деликатно ухаживает за кожей губ, придавая ей безоговорочную мягкость и гладкость.Больше чувств вместе с INTT!Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Блеск для губ INTT GLOSS VIBE Mint с эффектом вибрации и ароматом мяты (6 г).  Блеск для губ INTT GLOSS VIBE Mint с эффектом вибрации и ароматом мяты (6 г). Модель: intt-g01. Косметика, препараты. Смазки, косметика &gt; Косметика. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>6 г</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>6</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>6 г</t>
         </is>
       </c>
       <c r="W80" t="inlineStr"/>
@@ -10213,28 +10423,28 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Анальный лубрикант на водной основе</t>
+          <t>Блеск для губ INTT GLOSS VIBE</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>id-15651-1299</t>
+          <t>id-22193-1299</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -10250,44 +10460,44 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/15651/15651_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22193/22193_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22193/22193_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22193/22193_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22193/22193_4_650.jpg</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальный лубрикант на водной основе JO Anal H2O - долгое гладкое скольжение без липкости, без скатываний. Самый качественный лубрикант на рынке. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Анальный лубрикант на водной основе Anal H2O (240 мл).  Анальный лубрикант на водной основе Anal H2O (240 мл). Модель: jo-40108. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Разжечь страсть и свести с ума одним поцелуем? Почему бы и нет, когда это так легко с блеском для губ Intt Gloss Vibe Strawberry. Создает вибрирующий эффект. При поцелуях вибрация передается партнеру, что делает этот момент запоминающимся и возбуждающим желание. Сочный вкус клубники и легкое покалывание увеличивают удовольствие от оральных ласк. Невесомая текстура и прозрачный цвет позволяют использовать блеск в повседневной жизни в качестве бальзама. Безопасный состав деликатно ухаживает за кожей губ, придавая ей безоговорочную мягкость и гладкость.Больше чувств вместе с INTT!Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Блеск для губ INTT GLOSS VIBE Strawberry с эффектом вибрации и ароматом клубники (6 г).  Блеск для губ INTT GLOSS VIBE Strawberry с эффектом вибрации и ароматом клубники (6 г). Модель: intt-g02. Косметика, препараты. Смазки, косметика &gt; Косметика. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr">
         <is>
-          <t>240 мл</t>
+          <t>6 г</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>6</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>240 мл</t>
+          <t>6 г</t>
         </is>
       </c>
       <c r="W81" t="inlineStr"/>
@@ -10333,28 +10543,28 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Анальный обезболивающий и согревающий</t>
+          <t>Блеск для губ INTT GLOSS VIBE</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>id-16516-1299</t>
+          <t>id-22194-1299</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -10370,44 +10580,44 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16516/16516_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22194/22194_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22194/22194_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22194/22194_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22194/22194_4_650.jpg</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальный любрикант на водной основе JO Anal H2O - долгое гладкое скольжение без липкости, без скатываний. Густая формула. Самый качественный любрикант на рынке. Дополнительное возбуждающее тепло возникает только при трении. Чем интенсивнее контакт, тем интенсивнее согревающий эффект без жжения. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Анальный обезболивающий и согревающий гель Anal H2O Warming (60 мл).  Анальный обезболивающий и согревающий гель Anal H2O Warming (60 мл). Модель: jo-40109. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Анальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Разжечь страсть и свести с ума одним поцелуем? Почему бы и нет, когда это так легко с блеском для губ Intt Gloss Vibe Tutti-frutti. Создает вибрирующий эффект. При поцелуях вибрация передается партнеру, что делает этот момент запоминающимся и возбуждающим желание. Сочный вкус фруктов и легкое покалывание увеличивают удовольствие от оральных ласк. Невесомая текстура и прозрачный цвет позволяют использовать блеск в повседневной жизни в качестве бальзама. Безопасный состав деликатно ухаживает за кожей губ, придавая ей безоговорочную мягкость и гладкость.Больше чувств вместе с INTT!Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Блеск для губ INTT GLOSS VIBE Tutti-frutti с эффектом вибрации и фруктовым ароматом (6 г).  Блеск для губ INTT GLOSS VIBE Tutti-frutti с эффектом вибрации и фруктовым ароматом (6 г). Модель: intt-g03. Косметика, препараты. Смазки, косметика &gt; Косметика. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>6 г</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>6</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>6 г</t>
         </is>
       </c>
       <c r="W82" t="inlineStr"/>
@@ -10453,13 +10663,13 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Возбуждающие препараты</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -10469,12 +10679,12 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Вкусовой любрикант на водной основе</t>
+          <t>Жидкий вибратор с согревающим эффектом</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>id-10282-1299</t>
+          <t>id-25826-1299</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
@@ -10490,44 +10700,44 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10282/10282_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25826/25826_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25826/25826_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25826/25826_3_650.jpg</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный лубрикант Вишня на водной основе JO Flavored Cherry Burst - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой любрикант на водной основе Cherry Burst (вишня) 120 мл.  Вкусовой любрикант на водной основе Cherry Burst (вишня) 120 мл. Модель: jo-40116. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Вибрирующие волны Jambu откроют новый уровень стимуляции, повысят не только ощущения, но и помогут изучить и открыть самые тайные грани удовольствия. Всего одна капля жидкого вибратора Vibration! позволит ощутить яркий букет из тепла, вибрации и пульсации. Количество нанесения зависит от индивидуального уровня чувствительности каждого человека. Жидкий вибратор приносит волны согревающих, пульсирующих и вибрирующих ощущений в течение более 30 минут. Продукт унисекс и может использоваться для проникновения, мастурбации, поцелуев, а также орального секса из-за его невероятного вкуса.Способ применения: нанесите 1,2 или 3 дозы (нажатия на помпу дозатор) на клитор или 1 дозу на половой член. Жидкий вибратор с согревающим эффектом Vibration! Ganjah (15 мл).  Жидкий вибратор с согревающим эффектом Vibration! Ganjah (15 мл). Модель: intt-ga0001. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Оральные смазки. Препараты и возбудители &gt; Чувствительный клитор. Препараты и возбудители &gt; Усиление оргазма. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>15 мл</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>15</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>15 мл</t>
         </is>
       </c>
       <c r="W83" t="inlineStr"/>
@@ -10573,13 +10783,13 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -10589,12 +10799,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Вкусовой любрикант на водной основе</t>
+          <t>Шипучая массажная пена с охлаждающим</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>id-10274-1299</t>
+          <t>id-22187-1299</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -10610,44 +10820,44 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10274/10274_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22187/22187_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22187/22187_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22187/22187_3_650.jpg</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный лубрикант Малина на водной основе JO Flavored Raspberry Sorbet - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального любриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой любрикант на водной основе Raspberry Sorbet (малина) 120 мл.  Вкусовой любрикант на водной основе Raspberry Sorbet (малина) 120 мл. Модель: jo-40117. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Шипучая пена Intt Anghel Explosion Pheros - универсальное косметическое средство 3 в 1, владеть которым доставляет дикое удовольствие. Великолепно подходит для эффектного массажа. Просто встряхните баллончик и нанесите пену на тело партнера. Дальше все сделает шипучка с охлаждающим эффектом. Тысячи неуемных пузырьков начнут волновать кожу, плавно взрываясь и щекоча ее. А легкое ощущение холодка пробудит желание отдаться эксперименту полностью. Отлично расслабляет. Заряжает кожу энергией и снимает напряжение после долгого тяжелого дня. Превосходно освежает после душа. Безопасный состав с натуральными ингредиентами из выжимки бразильских растений изумительно увлажняет кожу, делая ее свежее, мягче и нежнее.Любите себя каждый день вместе с Intt Anghel Explosion Pheros.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Шипучая массажная пена с охлаждающим эффектом ANGHEL EXPLOSION PHEROS (50 мл).  Шипучая массажная пена с охлаждающим эффектом ANGHEL EXPLOSION PHEROS (50 мл). Модель: intt-lh01. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W84" t="inlineStr"/>
@@ -10693,13 +10903,13 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -10709,12 +10919,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант на водной основе</t>
+          <t>Шипучая массажная пена с охлаждающим</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>id-10275-1299</t>
+          <t>id-22186-1299</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -10730,44 +10940,44 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10275/10275_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22186/22186_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22186/22186_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22186/22186_3_650.jpg</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный лубрикант Клубника на водной основе JO Flavored Strawberry Kiss - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой лубрикант на водной основе Strawberry Kiss (клубника) 120 мл.  Вкусовой лубрикант на водной основе Strawberry Kiss (клубника) 120 мл. Модель: jo-40118. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Шипучая пена Intt Anghel Explosion Pheros с ароматом персика - универсальное косметическое средство 3 в 1, владеть которым доставляет дикое удовольствие. Великолепно подходит для эффектного массажа. Просто встряхните баллончик и нанесите пену на тело партнера. Дальше все сделает персиковая шипучка с охлаждающим эффектом. Тысячи неуемных пузырьков начнут волновать кожу, плавно взрываясь и щекоча ее. А легкое ощущение холодка и приятный аромат персика пробудят желание отдаться эксперименту полностью. Отлично расслабляет. Заряжает кожу энергией и снимает напряжение после долгого тяжелого дня. Превосходно освежает после душа. Безопасный состав с натуральными ингредиентами из выжимки бразильских растений изумительно увлажняет кожу, делая ее свежее, мягче и нежнее.Любите себя каждый день вместе с Intt Anghel Explosion Pheros.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Шипучая массажная пена с охлаждающим эффектом EXPLOSION PHEROS Peach и ароматом персика (50 мл).  Шипучая массажная пена с охлаждающим эффектом EXPLOSION PHEROS Peach и ароматом персика (50 мл). Модель: intt-lh02. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W85" t="inlineStr"/>
@@ -10813,13 +11023,13 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -10829,12 +11039,12 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант на водной основе</t>
+          <t>Массажное масло с возбуждающим эффектом</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>id-10283-1299</t>
+          <t>id-25618-1299</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -10850,44 +11060,44 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10283/10283_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25618/25618_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25618/25618_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25618/25618_3_650.jpg</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный лубрикант Арбуз на водной основе JO Flavored Watermelon - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального любриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой лубрикант на водной основе Watermelon (арбуз) 120 мл.  Вкусовой лубрикант на водной основе Watermelon (арбуз) 120 мл. Модель: jo-40119. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Массажное масло Intt Sauvage by Fatima Moura с возбуждающим эффектом - ритуал красоты и сексуальности в каждой капле.    Бесподобно для любого массажа. Возбуждающие дикое желание афродизиаки, волнующая нежностью текстура масла и утонченный аромат превращают сеанс массажа в особенный ритуал. Вам будет хотеться только одного - отдаться чувствам без остатка.    Безупречно для ухода за кожей. Комплекс ценных масел и витаминов придает коже мягкость, увлажненность и потрясающе ухоженный вид.Включите энергию страсти на полную с Intt Sauvage by Fatima Moura. Массажное масло с возбуждающим эффектом NTT SAUVAGE by Fatima Moura (130 мл).  Массажное масло с возбуждающим эффектом NTT SAUVAGE by Fatima Moura (130 мл). Модель: intt-lh08. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>130 мл</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>130</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>130 мл</t>
         </is>
       </c>
       <c r="W86" t="inlineStr"/>
@@ -10933,64 +11143,72 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>высокое качество</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажное масло JO - Coconut </t>
+          <t>Массажный гель INTT RU Silver с</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>id-27811-1299</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
+          <t>id-22188-1299</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
         <v>99999</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Массажное масло JO - Coconut &amp;amp</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27811/27811_27811_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22188/22188_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22188/22188_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22188/22188_2_650.jpg</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t xml:space="preserve">JO NATURALS Massage Oil Coconut &amp; Lime  эфирное масло для массажа на натуральной растительной основе с ярко выраженным ароматом кокоса и лайма. Благодаря тщательно продуманной формуле, масло обеспечивает длительное гладкое скольжение, позволяющее при массаже уберечь кожу от негативного воздействия. Входящие в состав натуральные средства и витамин Е прекрасно увлажняют и питают кожу. Сочетание сладости кокоса и свежей терпкости лайма придаст бодрости, улучшит настроение и создаст игривый настрой. Сочный, яркий, фруктовый аромат создан для тех, кто умеет владеть страстью, но держать зов природы под контролем до нужного момента.Применение:Масло идеально подходит для расслабляющего массажа всего тела. Просто нанесите несколько капель и начните массировать. Масло создано только для наружного использования.Хранение:Держать в закрытом виде, хранить в сухом месте при температуре не ниже 5С и не выше 25С.Состав:Соевое масло, витамин Е ацетат, масло семян пассифлоры, масло семян жожоба, оливковое масло, масло семян фисташки, масло сладкогоминдаля, кокосовое масло, масло лайма, парфюмированная отдушка. Массажное масло JO - Coconut &amp; Lime.Кокос и лайм (120 мл).  Массажное масло JO - Coconut . Модель: jo-40125. США.  Lime/Кокос и лайм (120 мл). Цвет: для женщин и мужчин. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Массажный гель Intt Ru Silver с фруктовым ароматом - беспроигрышный вариант для совершенных моментов близости. Подвластны особенные виды массажа. Плотная, нерастекающаяся текстура геля обволакивает тело и прекрасно расслабляет. Она превосходно справится даже со специальной техникой массажа телом по телу. Приятный аромат фруктов с цитрусовым оттенком отвлекает от повседневных мыслей и настраивает на близость. Уникальная формула позволяет экономично расходовать количество геля. Просто разведите часть геля теплой водой в отдельной емкости и наслаждайтесь еще большим скольжением. Абсолютно безопасный и клинически проверенный состав не вызывает аллергии или раздражения, не оставляет липких пятен и легко смывается водой.Intt Ru Silver создан для вашего удовольствия.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Массажный гель INTT RU Silver с цитрусовым ароматом (150 мл).  Массажный гель INTT RU Silver с цитрусовым ароматом (150 мл). Модель: intt-lh09. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Косметика, препараты</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>Косметика, препараты</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R87" t="inlineStr"/>
@@ -11029,7 +11247,7 @@
       <c r="AM87" t="inlineStr"/>
       <c r="AN87" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO87" t="inlineStr">
@@ -11049,28 +11267,28 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>высокое качество</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажное масло JO - Lavender </t>
+          <t>Массажный гель INTT RU Gold с цветочным</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>id-27809-1299</t>
+          <t>id-22189-1299</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -11081,45 +11299,49 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Массажное масло JO - Lavender &amp;amp</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27809/27809_27809_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22189/22189_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22189/22189_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22189/22189_3_650.jpg</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t xml:space="preserve">JO NATURALS Massage Oil Lavender &amp; Tahitian Vanilla  эфирное масло для массажа на натуральной растительной основе с ярко выраженным ароматом лаванды и таитянской ванили. Благодаря тщательно продуманной формуле, масло обеспечивает длительное гладкое скольжение, позволяющее при массаже уберечь кожу от негативного воздействия. Входящие в состав натуральные средства и витамин Е прекрасно увлажняют и питают кожу. Сочетание пьянящей сладости таитянской ванили и классической пряной свежести лаванды наполнит нежностью и спокойствием, улучшит настроение и создаст романтический настрой. Особенный и весьма оригинальный аромат создан для тех, кто хочет привнести больше чувственных эмоций в свои отношения.Применение:Масло идеально подходит для расслабляющего, восстанавливающего уставшие мышцы массажа всего тела. Просто нанесите несколько капель и начните массировать. Масло создано только для наружного использования.Хранение:Держать в закрытом виде, хранить в сухом месте при температуре не ниже 5С и не выше 25С. Массажное масло JO - Lavender &amp; Vanilla.Лаванда и ваниль (120 мл).  Массажное масло JO - Lavender . Модель: jo-40126. США.  Vanilla/Лаванда и ваниль (120 мл). Цвет: для женщин и мужчин. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Массажный гель Intt Ru Gold с цветочным ароматом - беспроигрышный вариант для совершенных моментов близости. Подвластны особенные виды массажа. Плотная, нерастекающаяся текстура геля обволакивает тело и прекрасно расслабляет. Она превосходно справится даже со специальной техникой массажа телом по телу. Приятный цветочный аромат с ванильным оттенком отвлекает от повседневных мыслей и настраивает на близость. Уникальная формула позволяет экономично расходовать количество геля. Просто разведите часть геля теплой водой в отдельной емкости и наслаждайтесь еще большим скольжением. Абсолютно безопасный и клинически проверенный состав не вызывает аллергии или раздражения, не оставляет липких пятен и легко смывается водой.Intt Ru Gold создан для вашего удовольствия.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Массажный гель INTT RU Gold с цветочным ароматом (150 мл).  Массажный гель INTT RU Gold с цветочным ароматом (150 мл). Модель: intt-lh10. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Косметика, препараты</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>Косметика, препараты</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U88" t="inlineStr"/>
+          <t>150 мл</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>150 мл</t>
         </is>
       </c>
       <c r="W88" t="inlineStr"/>
@@ -11145,7 +11367,7 @@
       <c r="AM88" t="inlineStr"/>
       <c r="AN88" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO88" t="inlineStr">
@@ -11165,28 +11387,28 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>высокое качество</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажное масло JO - Peppermint </t>
+          <t>Увлажнящий интимный гель на водной</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>id-27810-1299</t>
+          <t>id-25821-1299</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -11197,45 +11419,49 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Массажное масло JO - Peppermint &amp;amp</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27810/27810_27810_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25821/25821_1_650.jpg</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t xml:space="preserve">JO NATURALS Massage Oil Peppermint &amp; Eucalyptus  эфирное масло для массажа на натуральной растительной основе с ярко выраженным ароматом перечной мяты и эвкалипта. Благодаря тщательно продуманной формуле, масло обеспечивает длительное гладкое скольжение, позволяющее при массаже уберечь кожу от негативного воздействия. Входящие в состав натуральные средства и витамин Е прекрасно увлажняют и питают кожу. Сочетание прохладной свежести мяты и древесных ноток эвкалипта освежит, улучшит настроение и придаст бодрости. Приятный и мягкий аромат создан для тех, кто хочет стряхнуть усталость, зарядиться энергией, восстановить внутреннюю силу.Применение:Масло идеально подходит для расслабляющего релаксирующего массажа всего тела. Просто нанесите несколько капель и начните массировать. Масло создано только для наружного использования.Хранение:Держать в закрытом виде, хранить в сухом месте при температуре не ниже 5С и не выше 25С. Массажное масло JO - Peppermint &amp; Eucalyptus.Мята и эвкалипт (120 мл).  Массажное масло JO - Peppermint . Модель: jo-40127. США.  Eucalyptus/Мята и эвкалипт (120 мл). Цвет: для женщин и мужчин. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Интимный гель, который должен быть в Вашей прикроватной тумбочке. Состав на водной основе с маслом семян каннабиса (конопли) не вредит презервативу и его можно использовать ежедневно, во время полового акта или с секс-игрушками.Способ применения: нанесите необходимое количество на любую часть тела, чтобы улучшить скольжение и уменьшить трение. Увлажнящий интимный гель на водной основе с коноплей Cannabis (100мл).  Увлажнящий интимный гель на водной основе с коноплей Cannabis (100мл). Модель: intt-lu0001. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Косметика, препараты</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>Косметика, препараты</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U89" t="inlineStr"/>
+          <t>100 мл</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="W89" t="inlineStr"/>
@@ -11261,7 +11487,7 @@
       <c r="AM89" t="inlineStr"/>
       <c r="AN89" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO89" t="inlineStr">
@@ -11287,7 +11513,7 @@
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -11297,12 +11523,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант на водной основе</t>
+          <t>Согревающий анальный гель на</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>id-10278-1299</t>
+          <t>id-25820-1299</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -11318,44 +11544,44 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10278/10278_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25820/25820_1_650.jpg</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный лубрикант Банан на водной основе JO Flavored Banana Lick - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой лубрикант на водной основе Banana Lick (банан) 120 мл.  Вкусовой лубрикант на водной основе Banana Lick (банан) 120 мл. Модель: jo-40173. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Гель на силиконовой основе Hot Anal разработан специально для анальной области, его натуральный состав не вредит презервативу и его можно использовать ежедневно во время полового акта. Кроме того, он дает ощущение мягкого тепла.Способ применения: нанесите необходимое количество на любую часть тела, чтобы улучшить скольжение и уменьшить трение. Согревающий анальный гель на силиконовой основе Hot Anal (100мл).  Согревающий анальный гель на силиконовой основе Hot Anal (100мл). Модель: intt-lu0002. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>100</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="W90" t="inlineStr"/>
@@ -11401,13 +11627,13 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -11417,12 +11643,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант на водной основе</t>
+          <t>Возбуждающее массажное масло с</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>id-10281-1299</t>
+          <t>id-25838-1299</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -11438,44 +11664,44 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10281/10281_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25838/25838_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25838/25838_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25838/25838_3_650.jpg</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный лубрикант Персик на водной основе JO Flavored Peachy Lips - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой лубрикант на водной основе Peachy Lips (персик) 120 мл.  Вкусовой лубрикант на водной основе Peachy Lips (персик) 120 мл. Модель: jo-40176. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Возбуждающее массажное масло со вкусом и ароматом сахарной ваты дарит легкое ощущение тепла и сладости, его можно использовать при эротическом массаже, оральных ласках и проникновении. Способ применения: нанесите продукт на все желаемые участки тела и предайтесь любви. . Возбуждающее массажное масло с согревающим эффектом и ароматом сахарной ваты Cotton Candy (30мл).  Возбуждающее массажное масло с согревающим эффектом и ароматом сахарной ваты Cotton Candy (30мл). Модель: intt-mg0002. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Аксессуары для игр &gt; Наборы и аксессуары. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="W91" t="inlineStr"/>
@@ -11521,28 +11747,28 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Свечи эротик</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Возбуждающий гель для клитора мощного</t>
+          <t>Массажная свеча для поцелуев INTT</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>id-10311-1299</t>
+          <t>id-22178-1299</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -11558,44 +11784,44 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10311/10311_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22178/22178_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22178/22178_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22178/22178_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22178/22178_2_650.jpg</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Возбуждающий гель для клитора мощного действия JO Clitoral Atomic - Супер эффективный для супер-ощущений. Создан женщинами для женщин. Не содержит аминокислот. Безопасен для использования с презервативами. До 50 применений. Применение: небольшое количество геля нанесите на клитор и аккуратно помассируйте. Теплота и покалывающий эффект появятся через 3-5 минут. Через 45 минут эффект ослабнет и нанесение будет необходимо повторить. Возбуждающий гель для клитора мощного действия Clitoral Atomic (10 мл).  Возбуждающий гель для клитора мощного действия Clitoral Atomic (10 мл). Модель: jo-40179. Косметика, препараты. Препараты и возбудители &gt; Чувствительный клитор. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Запоминающийся массаж или горячая прелюдия? И то и другое, если в программе - массажная свеча для поцелуев Intt Strawberry с ароматом клубники. Создает первоклассный антураж. Аромат сладкой клубники наполняет пространство соблазном и задает настроение вечеру. Превращает обычный сеанс массажа в несравненный ритуал. Погасите свечу, и она превратится в растопленное массажное масло. Прикосновения теплых ладоней возбуждают и волнуют воображение. Открывает простор для сексуальных экспериментов. Восхитительный вкус клубники позволяет вашим поцелуям и ласкам быть максимально будоражащими. Клинически протестированный дерматологами и гинекологами состав не обжигает и деликатно ухаживает за кожей.Откройте для себя новые оттенки страсти вместе с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Массажная свеча для поцелуев INTT Strawberry с ароматом клубники (30 мл).  Массажная свеча для поцелуев INTT Strawberry с ароматом клубники (30 мл). Модель: intt-vb01. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="W92" t="inlineStr"/>
@@ -11641,13 +11867,13 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Свечи эротик</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -11657,12 +11883,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Охлаждающий лубрикант на силиконовой</t>
+          <t>Массажная свеча для поцелуев INTT Mint</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>id-10245-1299</t>
+          <t>id-22179-1299</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -11678,44 +11904,44 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10245/10245_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22179/22179_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22179/22179_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22179/22179_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22179/22179_3_650.jpg</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Силиконовый охлаждающий лубрикант JO Premium COOL - силиконовый лубрикант высшего качества. Шелковистый и нежный, абсолютно не липкий. Охлаждающий эффект создает легкие возбуждающие мурашки и делает прикосновение тел более желанным и контрастным, не жертвуя, ни одним из качеств JO. Долгое гладкое скольжение. Не требует смывания водой. Идеален для игр в душе. После применения испаряется с кожи, оставляя ее нежной и увлажненной. Рекомендуется во всем мире врачами и фармацевтами. Безопасен при использовании с латексными изделиями. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Охлаждающий лубрикант на силиконовой основе Premium Lubricant Cool (60 мл).  Охлаждающий лубрикант на силиконовой основе Premium Lubricant Cool (60 мл). Модель: jo-40189. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Запоминающийся массаж или горячая прелюдия? И то и другое, если в программе - массажная свеча для поцелуев Intt Mint с ароматом мяты. Создает первоклассный антураж. Аромат освежающей мяты наполняет пространство энергией релакса и задает настроение вечеру. Превращает обычный сеанс массажа в несравненный ритуал. Погасите свечу, и она превратится в растопленное массажное масло. Прикосновения теплых ладоней возбуждают и волнуют воображение. Открывает простор для сексуальных экспериментов. Восхитительный вкус мяты позволяет вашим поцелуям и ласкам быть максимально будоражащими. Клинически протестированный дерматологами и гинекологами состав не обжигает и деликатно ухаживает за кожей.Откройте для себя новые оттенки страсти вместе с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Массажная свеча для поцелуев INTT Mint с ароматом мяты (30 мл).  Массажная свеча для поцелуев INTT Mint с ароматом мяты (30 мл). Модель: intt-vb02. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="W93" t="inlineStr"/>
@@ -11761,13 +11987,13 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Свечи эротик</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -11777,12 +12003,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Охлаждающий лубрикант на водной основе</t>
+          <t>Массажная свеча для поцелуев INTT</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>id-10246-1299</t>
+          <t>id-22180-1299</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -11798,44 +12024,44 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10246/10246_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22180/22180_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22180/22180_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22180/22180_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22180/22180_4_650.jpg</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Охлаждающий лубрикант на водной основе JO H2O Cooling -превосходное длительное скольжение без липкости и без скатываний. Без искусственных добавок. Нежный как силиконовый. Охлаждающий эффект создает легкие возбуждающие мурашки и делает прикосновение тел более желанным и контрастным, не жертвуя, ни одним из качеств JO. Обладает всеми преимуществами фаворита JO H2O, который заставит вас возвращаться к нему снова и снова.Применение: небольшое количество персонального любриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Охлаждающий лубрикант на водной основе Lubricant H2O Cooling (60 мл).  Охлаждающий лубрикант на водной основе Lubricant H2O Cooling (60 мл). Модель: jo-40206. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Запоминающийся массаж или горячая прелюдия? И то и другое, если в программе - массажная свеча для поцелуев Intt Nutella с ароматом Нутеллы. Создает первоклассный антураж. Аромат сладкой Нутеллы наполняет пространство соблазном и задает настроение вечеру. Превращает обычный сеанс массажа в несравненный ритуал. Погасите свечу, и она превратится в растопленное массажное масло. Прикосновения теплых ладоней возбуждают и волнуют воображение. Открывает простор для сексуальных экспериментов. Восхитительный вкус Нутеллы позволяет вашим поцелуям и ласкам быть максимально будоражащими. Клинически протестированный дерматологами и гинекологами состав не обжигает и деликатно ухаживает за кожей.Откройте для себя новые оттенки страсти вместе с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Массажная свеча для поцелуев INTT Nutella с ароматом Нутеллы (30 мл).  Массажная свеча для поцелуев INTT Nutella с ароматом "Нутеллы" (30 мл). Модель: intt-vb03. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="W94" t="inlineStr"/>
@@ -11881,13 +12107,13 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Свечи эротик</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -11897,12 +12123,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Охлаждающий лубрикант на водной основе</t>
+          <t>Массажная свеча для поцелуев INTT Peach</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>id-10288-1299</t>
+          <t>id-22176-1299</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -11918,44 +12144,44 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10288/10288_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22176/22176_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22176/22176_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22176/22176_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22176/22176_4_650.jpg</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Охлаждающий лубрикант на водной основе JO H2O Cooling - превосходное длительное скольжение без липкости и без скатываний. Без искусственных добавок. Нежный как силиконовый. Охлаждающий эффект создает легкие возбуждающие мурашки и делает прикосновение тел более желанным и контрастным, не жертвуя, ни одним из качеств JO. Обладает всеми преимуществами фаворита JO H2O, который заставит вас возвращаться к нему снова и снова.Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Охлаждающий лубрикант на водной основе Lubricant H2O Cooling (120 мл).  Охлаждающий лубрикант на водной основе Lubricant H2O Cooling (120 мл). Модель: jo-40207. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Запоминающийся массаж или горячая прелюдия? И то и другое, если в программе - массажная свеча для поцелуев Intt Peach с ароматом персика. Создает первоклассный антураж. Аромат сладкого персика наполняет пространство соблазном и задает настроение вечеру. Превращает обычный сеанс массажа в несравненный ритуал. Погасите свечу, и она превратится в растопленное массажное масло. Прикосновения теплых ладоней возбуждают и волнуют воображение. Открывает простор для сексуальных экспериментов. Восхитительный вкус персика позволяет вашим поцелуям и ласкам быть максимально будоражащими. Клинически протестированный дерматологами и гинекологами состав не обжигает и деликатно ухаживает за кожей.Откройте для себя новые оттенки страсти вместе с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Массажная свеча для поцелуев INTT Peach с ароматом персика (30 мл).  Массажная свеча для поцелуев INTT Peach с ароматом персика (30 мл). Модель: intt-vb04. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="W95" t="inlineStr"/>
@@ -12001,13 +12227,13 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Свечи эротик</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -12017,12 +12243,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Обезболивающий и охлаждающий анальный</t>
+          <t>Массажная свеча для поцелуев INTT</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>id-10290-1299</t>
+          <t>id-22177-1299</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -12038,44 +12264,44 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10290/10290_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22177/22177_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22177/22177_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22177/22177_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22177/22177_4_650.jpg</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальный лубрикант на силиконовой основе JO Anal Premium - силиконовый лубрикант высшего качества. Густая формула для супер долгого комфортного скольжения, шелковистый и нежный, абсолютно не липкий. Охлаждающий эффект создает легкие возбуждающие мурашки и делает прикосновение тел более желанным и контрастным, не жертвуя, ни одним из качеств JO. Не требует смывания водой. Идеален для игр в душе. После применения испаряется с кожи, оставляя ее нежной и увлажненной. Рекомендуется во всем мире врачами и фармацевтами. Безопасен при использовании с латексными изделиями. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Обезболивающий и охлаждающий анальный лубрикант Anal Premium Cool (60 мл).  Обезболивающий и охлаждающий анальный лубрикант Anal Premium Cool (60 мл). Модель: jo-40208. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Запоминающийся массаж или горячая прелюдия? И то и другое, если в программе - массажная свеча для поцелуев Intt Caipirinha с ароматом лайма. Создает первоклассный антураж. Аромат сочного лайма наполняет пространство соблазном и задает настроение вечеру. Превращает обычный сеанс массажа в несравненный ритуал. Погасите свечу, и она превратится в растопленное массажное масло. Прикосновения теплых ладоней возбуждают и волнуют воображение. Открывает простор для сексуальных экспериментов. Восхитительный вкус лайма позволяет вашим поцелуям и ласкам быть максимально будоражащими. Клинически протестированный дерматологами и гинекологами состав не обжигает и деликатно ухаживает за кожей.Откройте для себя новые оттенки страсти вместе с INTT.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Массажная свеча для поцелуев INTT Caiprinha с ароматом лайма (30 мл).  Массажная свеча для поцелуев INTT Caiprinha с ароматом лайма (30 мл). Модель: intt-vb05. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t xml:space="preserve">30 </t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t xml:space="preserve">30 </t>
         </is>
       </c>
       <c r="W96" t="inlineStr"/>
@@ -12121,13 +12347,13 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Возбуждающие препараты</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -12137,12 +12363,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Обезболивающий и охлаждающий анальный</t>
+          <t>Жидкий вибратор с согревающим эффектом</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>id-18289-1299</t>
+          <t>id-25830-1299</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -12158,44 +12384,44 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/18289/18289_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25830/25830_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25830/25830_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25830/25830_3_650.jpg</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальный лубрикант на силиконовой основе JO Anal Premium - силиконовый лубрикант высшего качества. Густая формула для супер долгого комфортного скольжения, шелковистый и нежный, абсолютно не липкий. Охлаждающий эффект создает легкие возбуждающие мурашки и делает прикосновение тел более желанным и контрастным, не жертвуя, ни одним из качеств JO. Не требует смывания водой. Идеален для игр в душе. После применения испаряется с кожи, оставляя ее нежной и увлажненной. Рекомендуется во всем мире врачами и фармацевтами. Безопасен при использовании с латексными изделиями. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Обезболивающий и охлаждающий анальный лубрикант Anal Premium Cool (120 мл).  Обезболивающий и охлаждающий анальный лубрикант Anal Premium Cool (120 мл). Модель: jo-40209. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Фруктовые вибрирующие волны Jambu откроют новый уровень стимуляции, повысят не только ощущения, но и помогут изучить и открыть самые тайные грани удовольствия. Всего одна капля жидкого вибратора Vibration! позволит ощутить яркий букет из тепла, вибрации и пульсации. Количество нанесения зависит от индивидуального уровня чувствительности каждого человека. Захватывающий вкус жвачки Bubble Gum не оставит партнеров равнодушными, вкус максимально приближен к натуральному.Жидкий вибратор приносит волны согревающих, пульсирующих и вибрирующих ощущений в течение более 30 минут. Продукт унисекс и может использоваться для проникновения, мастурбации, поцелуев, а также орального секса из-за его невероятного вкуса.Способ применения: нанесите 1,2 или 3 дозы (нажатия на помпу дозатор) на клитор или 1 дозу на половой член. Жидкий вибратор с согревающим эффектом и фруктовым вкусом Vibration! Bubble Gum (15 мл).  Жидкий вибратор с согревающим эффектом и фруктовым вкусом Vibration! Bubble Gum (15 мл). Модель: intt-vib0004. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Препараты и возбудители &gt; Чувствительный клитор. Препараты и возбудители &gt; Усиление оргазма. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>15 мл</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>15</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>15 мл</t>
         </is>
       </c>
       <c r="W97" t="inlineStr"/>
@@ -12247,7 +12473,7 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -12257,12 +12483,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Обезболивающий и охлаждающий анальный</t>
+          <t>Парфюмированный спрей для тела INTT VEM</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>id-16509-1299</t>
+          <t>id-22190-1299</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -12278,27 +12504,27 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16509/16509_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22190/22190_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22190/22190_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22190/22190_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22190/22190_4_650.jpg</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальный охлаждающий лубрикант на водной основе JO Anal H2O COOL - долгое гладкое скольжение без липкости, без скатываний. Густая формула. Самый качественный лубрикант на рынке. Охлаждающий эффект создает легкие возбуждающие мурашки и делает прикосновение тел более желанным и контрастным, не жертвуя, ни одним из качеств JO. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Обезболивающий и охлаждающий анальный лубрикант Anal H2O Cool (120 мл).  Обезболивающий и охлаждающий анальный лубрикант Anal H2O Cool (120 мл). Модель: jo-40211. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Парфюмированный спрей для тела Intt Vem Transar Splash для двоих - философия яркой и насыщенной жизни. Изысканный и одновременно сдержанный аромат идеально подходит как мужчинам, так и женщинам. Легкая невесомая текстура быстро освежает даже при повышенной температуре воздуха.Будьте в ритме удачного дня с Intt Vem Transar Splash.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Парфюмированный спрей для тела INTT VEM TRANSAR SPLASH для двоих (120 мл).  Парфюмированный спрей для тела INTT VEM TRANSAR SPLASH для двоих (120 мл). Модель: intt-vr08. Косметика, препараты. Смазки, косметика &gt; Косметика. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R98" t="inlineStr"/>
@@ -12361,13 +12587,13 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -12377,12 +12603,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Ароматизированный лубрикант на водной</t>
+          <t>Разогревающее съедобное масло для</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>id-13707-1299</t>
+          <t>id-22167-1299</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -12398,44 +12624,44 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13707/13707_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22167/22167_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22167/22167_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22167/22167_3_650.jpg</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный лубрикант Мята на водной основе JO Flavored Cool Mint H2O - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Ароматизированный лубрикант на водной основе с охлаждающей мятой JO Flavored Cool Mint H2O (120 мл).  Ароматизированный лубрикант на водной основе с охлаждающей мятой JO Flavored Cool Mint H2O (120 мл). Модель: jo-40383. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Искра. Буря. Экстаз. Может ли массаж подарить такое? Может, если это массажное масло для поцелуев Intt Vem Transar heat and chill со вкусом сахарной ваты. Позволяет экспериментировать. Поскольку масло обладает разогревающим эффектом и предназначено для поцелуев, можно не ограничивать себя в сценариях интимных игр. Нанесите Intt Fruit Sexy на тело, поцелуйте несколько чувствительных точек и подуйте на них в течение 3 секунд - возбуждение не заставит себя долго ждать. Провоцирует желание. Аппетитный аромат сладкой ваты создает игривое настроение и помогает расслабиться. Абсолютно безопасная и протестированная формула без сахара и глютена подходит даже аллергикам и диабетикам. Не оставляет ощущения липкости и легко смывается водой.INTT - удовольствие в каждой капле.Меры предосторожности: Не используйте на раздраженной или поврежденной коже. В случае раздражения кожи прекратите использование продукта и промойте раздраженный участок проточной водой. В случае контакта с глазами промойте водой. Только для наружного применения. Не глотать. Не используйте рядом с легковоспламеняющимися продуктами. Разогревающее съедобное масло для массажа со вкусом сахарной ваты FRUIT SEXY (40 мл).  Разогревающее съедобное масло для массажа со вкусом сахарной ваты FRUIT SEXY (40 мл). Модель: intt-vt01. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>40 мл</t>
         </is>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>40</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>40 мл</t>
         </is>
       </c>
       <c r="W99" t="inlineStr"/>
@@ -12481,28 +12707,28 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>INVERMA</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Ароматизированный лубрикант на водной</t>
+          <t>Крем Erecta-Absolut для мужчин</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>id-16511-1299</t>
+          <t>id-2505-1299</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -12518,44 +12744,44 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16511/16511_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2505/2505_1_650.jpg</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный лубрикант Ваниль на водной основе JO Flavored Vanilla H2O - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива.Ароматизированный лубрикант на водной основе JO Flavored Vanilla H2O (ваниль, 120 мл).  Ароматизированный лубрикант на водной основе JO Flavored Vanilla H2O (ваниль, 120 мл). Модель: jo-40384. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">.Крем Erecta-Absolut для мужчин.  Крем Erecta-Absolut для мужчин. Модель: inverma-20200. Косметика, препараты. Препараты и возбудители &gt; Усиление эрекции. Батареек нет в комплекте. Бренд: INVERMA. </t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>18 мл</t>
         </is>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>18</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>18 мл</t>
         </is>
       </c>
       <c r="W100" t="inlineStr"/>
@@ -12601,28 +12827,28 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>IRRESISTIBLE</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Мужской стимулирующий гель для сосков</t>
+          <t>Интенсивный вакуумный вибромассажер</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>id-16932-1299</t>
+          <t>id-22093-1299</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -12638,17 +12864,17 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16932/16932_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16932/16932_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22093/22093_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22093/22093_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22093/22093_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22093/22093_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22093/22093_5_650.jpg</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматный стимулирующий гель для сосков Nipple Titillator Winter Mint - создаёт чувственное и согревающее наслаждение. Ласка сосков включает в голове эмоциональные центры автоматически настраивающие на романтичный лад. Обеспечивает приятный, длительный освежающий и охлаждающий эффект, пробуждающий желание. Улучшается циркуляция крови, повышается сексуальное стремление. Зимняя мята усиливает страстное желание. Съедобный, безопасный, из натуральных ингредиентов. Мужской стимулирующий гель для сосков Nipple Titillator Mens Winter Blitz (со вкусом мяты) 30 мл.  Мужской стимулирующий гель для сосков Nipple Titillator Mens Winter Blitz (со вкусом мяты) 30 мл. Модель: jo-40389. Косметика, препараты. Смазки, косметика &gt; Косметика. Красивая грудь &gt; Кремы, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Коллекция Irresistible - это идеальное сочетание передовых технологий, высокого качества, эстетики и эргономичного дизайна. Технология работает мягко и проникновенно, стимулируя клитор с 11 различными уровнями интенсивности, от супер мягкого до мощного. Эти красиво оформленные игрушки окружают ваш клитор, не касаясь его, и стимулируют его мягкими воздушными волнами, создавая давление и уникальную проникающую в ткани вибрацию, которая не может быть достигнута без использования этой технологии. С созданием нашей технологии Touchless Airwave мы можем создать идеальную пульсацию звуковой волны, которая может проходить через ткани и стимулировать клиторальные нервные окончания, производя самые глубокие оргазмы, которые вы когда-либо испытывали! В отличие от других вибраторов, которые могут раздражать или десенсибилизировать ваш клитор чрезмерной стимуляцией, коллекция Irresistible не подвергается чрезмерной стимуляции, благодаря технологии Touchless Air Wave. Готовы ли вы испытать самые интенсивные оргазмы в вашей жизни? Водонепроницаемая и гигиеничная герметичная мембрана в игрушке на 100% водонепроницаема и имеет класс защиты IP70, который является максимально возможным уровнем. Женский массажер Invincible сделан из высококачественного бархатистого силикона и имеет аккумуляторную батарею с магнитным USB-портом для зарядки и прилагаемым зарядным устройством. Когда он полностью заряжен, а для его полной зарядки требуется 120 минут, его работа будет продолжаться 60 минут. Invincible имеет сверхмощный 10-скоростной мотор F1 нового поколения, который идеально подходит для создания самого интенсивного оргазма, который когда-либо испытывался! Три первые скорости регулируют степень вибрации, а семь последующих - различные паттерны пульсации. Invincible является на 100% водонепроницаемым - это означает, что вы можете его использовать в душе. Мягкий на ощупь, с двумя тихими моторами, гладкий и водонепроницаемый Invincible, за ним очень легко ухаживать. На массажер распространяется гарантия 1 год. Интенсивный вакуумный вибромассажер клитора Irresistible Invincible (11 реж. интенсив., 10 реж. вибрации).  Интенсивный вакуумный вибромассажер клитора Irresistible Invincible (11 реж. интенсив., 10 реж. вибрации). Модель: irresis-003blk. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Женские стимуляторы &gt; Клиторальные стимуляторы. Элитная продукция &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Элитная продукция. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: IRRESISTIBLE. </t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Нидерланды</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -12661,28 +12887,38 @@
           <t>Экстра класс</t>
         </is>
       </c>
-      <c r="R101" t="inlineStr"/>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr">
         <is>
-          <t>30 мл</t>
-        </is>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr">
         <is>
-          <t>30 мл</t>
-        </is>
-      </c>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
-      <c r="Z101" t="inlineStr"/>
-      <c r="AA101" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W101" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>12</v>
+      </c>
       <c r="AB101" t="inlineStr"/>
       <c r="AC101" t="inlineStr"/>
       <c r="AD101" t="inlineStr"/>
@@ -12701,7 +12937,7 @@
       <c r="AM101" t="inlineStr"/>
       <c r="AN101" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стимулятор, магнитное зарядное USB-устройство, инструкция</t>
         </is>
       </c>
       <c r="AO101" t="inlineStr">
